--- a/src/attributions/attributions_saliency_traj_393.xlsx
+++ b/src/attributions/attributions_saliency_traj_393.xlsx
@@ -1004,1709 +1004,1709 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2161890417337418</v>
+        <v>0.001215144991874695</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02454658597707748</v>
+        <v>0.01795930787920952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1381409764289856</v>
+        <v>0.0002100460696965456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05681721121072769</v>
+        <v>0.01304526161402464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02609961107373238</v>
+        <v>0.006463524885475636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02192002348601818</v>
+        <v>0.005932763684540987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01764490455389023</v>
+        <v>0.001857492956332862</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02960545383393764</v>
+        <v>0.00360551755875349</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06127820909023285</v>
+        <v>0.005825893953442574</v>
       </c>
       <c r="J2" t="n">
-        <v>0.207995131611824</v>
+        <v>0.002311141462996602</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01830967515707016</v>
+        <v>0.0123179042711854</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1478791683912277</v>
+        <v>0.0003923398326151073</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01723081059753895</v>
+        <v>0.007465055678039789</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04518386721611023</v>
+        <v>0.005882724653929472</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02503523603081703</v>
+        <v>0.002175874076783657</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03538062423467636</v>
+        <v>0.002268593292683363</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03747301921248436</v>
+        <v>0.004009376745671034</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1021924540400505</v>
+        <v>0.004996409639716148</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004197894129902124</v>
+        <v>0.0008622369496151805</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0501193143427372</v>
+        <v>0.001593328197486699</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006797072477638721</v>
+        <v>0.000440772797446698</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005669552832841873</v>
+        <v>0.001695829792879522</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04800711199641228</v>
+        <v>0.002378307748585939</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01715590618550777</v>
+        <v>0.0006881433655507863</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001595089328475296</v>
+        <v>0.001855574431829154</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04695591703057289</v>
+        <v>0.00170030863955617</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01588615030050278</v>
+        <v>0.0003393985680304468</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00451899878680706</v>
+        <v>0.003628348233178258</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01830804347991943</v>
+        <v>0.003398201894015074</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006265554111450911</v>
+        <v>0.001468581380322576</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0008237657602876425</v>
+        <v>0.004581346642225981</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002365008927881718</v>
+        <v>0.0007023409707471728</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.004749531857669353</v>
+        <v>0.002949267160147429</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.02344927377998829</v>
+        <v>0.001153728808276355</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.05833790078759193</v>
+        <v>0.006518520880490541</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02380719594657421</v>
+        <v>0.0003817862016148865</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0453866645693779</v>
+        <v>0.0004343489126767963</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.04753199592232704</v>
+        <v>0.002334938384592533</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01594828814268112</v>
+        <v>9.264469554182142e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.04084134101867676</v>
+        <v>0.0006512210820801556</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02797440439462662</v>
+        <v>0.001411322737112641</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02049953490495682</v>
+        <v>0.002347858157008886</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001867296639829874</v>
+        <v>0.0002179502334911376</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.002220558933913708</v>
+        <v>0.00424429913982749</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.003762757405638695</v>
+        <v>0.0008406190318055451</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.09214463084936142</v>
+        <v>0.002239581663161516</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.04823209717869759</v>
+        <v>0.00779130682349205</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1003157272934914</v>
+        <v>0.001306021003983915</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01959567703306675</v>
+        <v>0.01074825972318649</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02462771907448769</v>
+        <v>0.004571780562400818</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.03098309226334095</v>
+        <v>0.008647197857499123</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03444968536496162</v>
+        <v>0.004307161550968885</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0429653525352478</v>
+        <v>0.004983177408576012</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.005323577672243118</v>
+        <v>0.002707172883674502</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.04815638810396194</v>
+        <v>0.0008095235098153353</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.005664607509970665</v>
+        <v>0.0039034029468894</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.02086453512310982</v>
+        <v>0.0009217443875968456</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.002868938725441694</v>
+        <v>0.00416363263502717</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.03962557017803192</v>
+        <v>0.005330314394086599</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.03302964940667152</v>
+        <v>0.003977784886956215</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.01586184278130531</v>
+        <v>0.001349142054095864</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.05827872082591057</v>
+        <v>0.003286575665697455</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.02130773663520813</v>
+        <v>0.001642164308577776</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01944506913423538</v>
+        <v>0.001814036280848086</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00806800089776516</v>
+        <v>0.001071940059773624</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.03189851343631744</v>
+        <v>0.001992486417293549</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.005849249195307493</v>
+        <v>0.002068536821752787</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05121024698019028</v>
+        <v>0.001950901234522462</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01985608413815498</v>
+        <v>0.0005671100225299597</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.006414745468646288</v>
+        <v>0.0002738336334004998</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0256318487226963</v>
+        <v>0.003655894426628947</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01742412894964218</v>
+        <v>0.001397805055603385</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.08470867574214935</v>
+        <v>0.002372008981183171</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.01306257210671902</v>
+        <v>0.005341729149222374</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.04150667786598206</v>
+        <v>0.0001936245535034686</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.03062170930206776</v>
+        <v>0.003143109381198883</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01238735672086477</v>
+        <v>0.001627823454327881</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02211897261440754</v>
+        <v>0.001277347793802619</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.008520963601768017</v>
+        <v>0.00084951106691733</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.04085865989327431</v>
+        <v>0.002393877133727074</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.002728445222601295</v>
+        <v>0.001030111452564597</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.04481619596481323</v>
+        <v>0.0005126748001202941</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.03496549278497696</v>
+        <v>0.002416215837001801</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.02445468679070473</v>
+        <v>7.375457789748907e-05</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.009572511538863182</v>
+        <v>0.002155855763703585</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.002585901878774166</v>
+        <v>0.001097427564673126</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.006613696459680796</v>
+        <v>7.038174953777343e-05</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.002067289315164089</v>
+        <v>0.0003317796799819916</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.002022254280745983</v>
+        <v>0.0007744209142401814</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.008455239236354828</v>
+        <v>0.0002343910746276379</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.009912788867950439</v>
+        <v>0.001502391183748841</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.000817522406578064</v>
+        <v>0.001834475551731884</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.002562221139669418</v>
+        <v>0.000188865655218251</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.01068764179944992</v>
+        <v>0.005348742473870516</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.04965458065271378</v>
+        <v>0.00304900761693716</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.005465377122163773</v>
+        <v>0.003216419368982315</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.02327616140246391</v>
+        <v>0.002571757882833481</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.04718203842639923</v>
+        <v>0.002189269056543708</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.03448909893631935</v>
+        <v>0.00174170034006238</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.04370621219277382</v>
+        <v>0.0003234609612263739</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.02839992754161358</v>
+        <v>0.002746600192040205</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02859086357057095</v>
+        <v>0.0009338140953332186</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.005003496073186398</v>
+        <v>0.002778996014967561</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02450896054506302</v>
+        <v>0.001033650245517492</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.01009465754032135</v>
+        <v>0.0008897219086065888</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.001474282355047762</v>
+        <v>0.0002544170711189508</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.009532123804092407</v>
+        <v>0.0007186272414401174</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.005441342480480671</v>
+        <v>0.0002669965324457735</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.008551896549761295</v>
+        <v>0.000494681647978723</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.1044705361127853</v>
+        <v>0.006392441689968109</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.05928365886211395</v>
+        <v>0.0009187408722937107</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01621290482580662</v>
+        <v>0.01037694979459047</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01099974475800991</v>
+        <v>0.007108371704816818</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02181211486458778</v>
+        <v>0.0003224100219085813</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0256993230432272</v>
+        <v>0.002083704574033618</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.02243892475962639</v>
+        <v>0.008386341854929924</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01113946735858917</v>
+        <v>0.002499786671251059</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0001286258921027184</v>
+        <v>0.001733522047288716</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0463658906519413</v>
+        <v>0.002208536490797997</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00465360376983881</v>
+        <v>0.002474495209753513</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.008660051971673965</v>
+        <v>0.0009315008064731956</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.004770032130181789</v>
+        <v>0.0004081060760654509</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.01333418488502502</v>
+        <v>0.002150504849851131</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.02345704659819603</v>
+        <v>6.076752106309868e-05</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.03299309685826302</v>
+        <v>0.002012413926422596</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.005973776336759329</v>
+        <v>0.00176292285323143</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01617348752915859</v>
+        <v>0.00112449296284467</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.003920946270227432</v>
+        <v>0.0009409872582182288</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00204878207296133</v>
+        <v>0.001194763113744557</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.007582986261695623</v>
+        <v>0.002356520155444741</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.03012826293706894</v>
+        <v>0.001434428850188851</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.002523075789213181</v>
+        <v>0.000911853916477412</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.01168987154960632</v>
+        <v>0.000233665166888386</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02563552930951118</v>
+        <v>0.001144662033766508</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.005792512092739344</v>
+        <v>0.0006788148311898112</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.06818179786205292</v>
+        <v>0.0004680226265918463</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.03454118221998215</v>
+        <v>0.0004839918110519648</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02218596264719963</v>
+        <v>0.00165072432719171</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.005446036346256733</v>
+        <v>0.0006651243311353028</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02054839767515659</v>
+        <v>0.002480149269104004</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.02966541424393654</v>
+        <v>0.0008235892164520919</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.02330312505364418</v>
+        <v>0.0001460975327063352</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02826101332902908</v>
+        <v>0.0007569894660264254</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.01730392873287201</v>
+        <v>0.001187767600640655</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.008508807979524136</v>
+        <v>0.0003279114316683263</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0252707414329052</v>
+        <v>0.0005853520124219358</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00655417563393712</v>
+        <v>0.0004883114597760141</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.008151298388838768</v>
+        <v>7.351567910518497e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.002688907086849213</v>
+        <v>0.0004235852975398302</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03447607904672623</v>
+        <v>0.0007361778989434242</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.03538792580366135</v>
+        <v>0.002183212898671627</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.007809877395629883</v>
+        <v>0.001334522268734872</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.01939971186220646</v>
+        <v>0.001394204096868634</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.04579074680805206</v>
+        <v>0.0004994389018975198</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.02200816385447979</v>
+        <v>0.002563596935942769</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.02923711389303207</v>
+        <v>0.0001865666708908975</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.004307040944695473</v>
+        <v>0.002212247578427196</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01257614325731993</v>
+        <v>0.001085394993424416</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00128347345162183</v>
+        <v>0.0006386303575709462</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.002477334812283516</v>
+        <v>7.298942364286631e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.001780855469405651</v>
+        <v>0.0007615889189764857</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.007750130258500576</v>
+        <v>0.0002057837118627504</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.03171797469258308</v>
+        <v>0.001790620619431138</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.03347571566700935</v>
+        <v>0.002384926658123732</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.025169737637043</v>
+        <v>0.002087492495775223</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.04260185733437538</v>
+        <v>0.003915723878890276</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0220192838460207</v>
+        <v>0.00155274523422122</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.03057714551687241</v>
+        <v>0.0005657634465023875</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00176648236811161</v>
+        <v>0.002449664752930403</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.005930068902671337</v>
+        <v>0.0003196913166902959</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.02015110477805138</v>
+        <v>0.0003371307102497667</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.02460232190787792</v>
+        <v>0.0008697250159457326</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.07884076237678528</v>
+        <v>0.001167161739431322</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01288120914250612</v>
+        <v>0.002738819690421224</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01682218909263611</v>
+        <v>0.004635797813534737</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002906624227762222</v>
+        <v>0.003957860637456179</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.02289735898375511</v>
+        <v>0.001276781549677253</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.009352571330964565</v>
+        <v>0.0006369262700900435</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02748475782573223</v>
+        <v>0.0003639995120465755</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.008646911010146141</v>
+        <v>0.001517997006885707</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.01423557568341494</v>
+        <v>0.000464907381683588</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.009344890713691711</v>
+        <v>0.0005494322977028787</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.002381954807788134</v>
+        <v>0.0008630820084363222</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.04267830774188042</v>
+        <v>9.939516894519329e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.003786928486078978</v>
+        <v>0.008511697873473167</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.03200861439108849</v>
+        <v>0.001150618423707783</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.003977026790380478</v>
+        <v>0.0004341964668128639</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00677067507058382</v>
+        <v>0.001139385160058737</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.002157321199774742</v>
+        <v>0.0004853311984334141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002506310818716884</v>
+        <v>0.0001783400512067601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0001569089945405722</v>
+        <v>0.004927667789161205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00394392479211092</v>
+        <v>0.0005819296929985285</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000881701591424644</v>
+        <v>0.001037799287587404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003619311319198459</v>
+        <v>0.002174584427848458</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002843280672095716</v>
+        <v>0.003171642310917377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001190926064737141</v>
+        <v>0.0006148841348476708</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006078684236854315</v>
+        <v>0.0009247728739865124</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001010092557407916</v>
+        <v>0.0001828010281315073</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002276368206366897</v>
+        <v>0.0007679733098484576</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005652711261063814</v>
+        <v>0.004414606839418411</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003865136997774243</v>
+        <v>6.275917257880792e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0005776856560260057</v>
+        <v>0.0009782667038962245</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001084520481526852</v>
+        <v>0.00182101596146822</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002860213862732053</v>
+        <v>0.00354530056938529</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001257855677977204</v>
+        <v>0.0003010316577274352</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0008981010178104043</v>
+        <v>7.289960194611922e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001418048748746514</v>
+        <v>0.0005118300323374569</v>
       </c>
       <c r="S3" t="n">
-        <v>2.585365291452035e-05</v>
+        <v>9.4788265414536e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001275531947612762</v>
+        <v>0.0005738955806009471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003056777932215482</v>
+        <v>8.660281309857965e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001126977367675863</v>
+        <v>0.0005774048622697592</v>
       </c>
       <c r="W3" t="n">
-        <v>5.210658855503425e-07</v>
+        <v>0.0003325776197016239</v>
       </c>
       <c r="X3" t="n">
-        <v>8.896327926777303e-05</v>
+        <v>0.00065200449898839</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.000304416666040197</v>
+        <v>9.067538485396653e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0009703453979454935</v>
+        <v>0.000528026488609612</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.002977271331474e-05</v>
+        <v>0.0001635107328183949</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0002344159584026784</v>
+        <v>0.0004497300833463669</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001743563334457576</v>
+        <v>4.106064443476498e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.169072104152292e-05</v>
+        <v>0.0007699793204665184</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0002471671905368567</v>
+        <v>0.0004344643675722182</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0002577183186076581</v>
+        <v>3.657781053334475e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0005703865317627788</v>
+        <v>0.0002382521633990109</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0002897616941481829</v>
+        <v>0.0001182213454740122</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0009424721938557923</v>
+        <v>0.0002129760978277773</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0007576215430162847</v>
+        <v>0.0005378656787797809</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0004825593205168843</v>
+        <v>0.0006769923493266106</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0004751979722641408</v>
+        <v>0.0005256002186797559</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0004666739259846509</v>
+        <v>0.0002292451536050066</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.000443682074546814</v>
+        <v>0.0001380016619805247</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.924601231934503e-05</v>
+        <v>0.0002889129973482341</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0004074213211424649</v>
+        <v>0.0004100532969459891</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.237205186858773e-05</v>
+        <v>1.671120480750687e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.000131590713863261</v>
+        <v>0.0003581811906769872</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.470900214277208e-05</v>
+        <v>0.0003412072837818414</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.001022321870550513</v>
+        <v>0.0001262397709069774</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0002615364792291075</v>
+        <v>0.003712102770805359</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.001870095264166594</v>
+        <v>0.0005818194476887584</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0006342610577121377</v>
+        <v>0.0006359920371323824</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0001588406594237313</v>
+        <v>0.0003691677702590823</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0007830829126760364</v>
+        <v>0.0006955263670533895</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0001023743971018121</v>
+        <v>0.0002590841031633317</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0005310256965458393</v>
+        <v>0.000450366991572082</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0003230407019145787</v>
+        <v>0.0001533383037894964</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0006256281631067395</v>
+        <v>0.0002720382180996239</v>
       </c>
       <c r="BD3" t="n">
-        <v>8.358587365364656e-06</v>
+        <v>0.001253216527402401</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.001217358745634556</v>
+        <v>0.001441562315449119</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0001196537195937708</v>
+        <v>0.0001671823411015794</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0001294713438255712</v>
+        <v>0.001640239381231368</v>
       </c>
       <c r="BH3" t="n">
-        <v>6.482130265794694e-05</v>
+        <v>0.002376237884163857</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0006563916685990989</v>
+        <v>0.0005989716155454516</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.0004752198292408139</v>
+        <v>0.0002318639890290797</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0003512605326250196</v>
+        <v>0.0002917101373896003</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0001263619778910652</v>
+        <v>0.0003990164259448647</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0001040655915858224</v>
+        <v>0.001034810789860785</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0007655409281142056</v>
+        <v>0.0004559102817438543</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0001480941573390737</v>
+        <v>0.0003042501921299845</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0005261855549179018</v>
+        <v>0.0007790193776600063</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0002204129850724712</v>
+        <v>0.0008806171827018261</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0001160758911282755</v>
+        <v>0.0003837022231891751</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0003858087584376335</v>
+        <v>0.0004709325730800629</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0002434150082990527</v>
+        <v>0.0004528118879534304</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.00094319210620597</v>
+        <v>1.344711745332461e-05</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0001326946949120611</v>
+        <v>0.001799190067686141</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0007774183759465814</v>
+        <v>0.0004377088625915349</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0004162763943895698</v>
+        <v>0.0004826828953810036</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0001746145280776545</v>
+        <v>8.207512291846797e-05</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0007600238895975053</v>
+        <v>0.0001170242030639201</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0001585458230692893</v>
+        <v>0.0001695301616564393</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.000132313376525417</v>
+        <v>0.0001302698510698974</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0002323310181964189</v>
+        <v>4.702742444351315e-06</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0004701038415078074</v>
+        <v>2.803934694384225e-05</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.000504991679918021</v>
+        <v>0.0007345433696173131</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.000846030015964061</v>
+        <v>0.0003137390303891152</v>
       </c>
       <c r="CG3" t="n">
-        <v>8.82789827301167e-05</v>
+        <v>0.0002963859296869487</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.889653842430562e-05</v>
+        <v>1.326198071183171e-05</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0002568454074207693</v>
+        <v>0.0005168000352568924</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0003216761397197843</v>
+        <v>0.000409977394156158</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0002298671170137823</v>
+        <v>6.47624401608482e-05</v>
       </c>
       <c r="CL3" t="n">
-        <v>5.668932499247603e-05</v>
+        <v>0.0001200109618366696</v>
       </c>
       <c r="CM3" t="n">
-        <v>7.168018055381253e-05</v>
+        <v>0.001016181311570108</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0008901683031581342</v>
+        <v>0.0008121446007862687</v>
       </c>
       <c r="CO3" t="n">
-        <v>3.219129575882107e-05</v>
+        <v>0.0001198120880872011</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0005105229211039841</v>
+        <v>0.0002287540264660493</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0005546956090256572</v>
+        <v>0.0006704740808345377</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0002590974909253418</v>
+        <v>0.0001374456915073097</v>
       </c>
       <c r="CS3" t="n">
-        <v>7.812375406501815e-05</v>
+        <v>0.0008201486198231578</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0002699339820537716</v>
+        <v>0.0009173794533126056</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0008765685488469899</v>
+        <v>0.0001185802975669503</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0004185875586699694</v>
+        <v>2.92956883640727e-05</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0003890541265718639</v>
+        <v>0.0005878517404198647</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0008634103578515351</v>
+        <v>0.0002988293417729437</v>
       </c>
       <c r="CY3" t="n">
-        <v>8.286376396426931e-05</v>
+        <v>0.0004767231876030564</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0003423521993681788</v>
+        <v>1.841478842834476e-05</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0002137654228135943</v>
+        <v>0.0005605171900242567</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0002752431610133499</v>
+        <v>0.0003676687483675778</v>
       </c>
       <c r="DC3" t="n">
-        <v>8.711538248462602e-05</v>
+        <v>2.748404949670658e-05</v>
       </c>
       <c r="DD3" t="n">
-        <v>8.677724690642208e-05</v>
+        <v>3.54731673724018e-05</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0004757226852234453</v>
+        <v>0.0003110412508249283</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0008867098949849606</v>
+        <v>0.0006636973121203482</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0004228413745295256</v>
+        <v>0.0004248490440659225</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.0002731957647483796</v>
+        <v>0.000990642118267715</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0005670760292559862</v>
+        <v>0.0005756057798862457</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0005473550409078598</v>
+        <v>5.356650217436254e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0001104305265471339</v>
+        <v>0.0001036272951751016</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0004312858800403774</v>
+        <v>0.0004662046849261969</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0005271479021757841</v>
+        <v>0.000756904948502779</v>
       </c>
       <c r="DN3" t="n">
-        <v>2.959145967906807e-05</v>
+        <v>0.0001021271673380397</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0006183421355672181</v>
+        <v>8.531363710062578e-05</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0001119341468438506</v>
+        <v>0.0003861448494717479</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0002083250292344019</v>
+        <v>4.748153151012957e-05</v>
       </c>
       <c r="DR3" t="n">
-        <v>5.732447607442737e-05</v>
+        <v>0.000311576877720654</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0003475156845524907</v>
+        <v>9.618004696676508e-05</v>
       </c>
       <c r="DT3" t="n">
-        <v>7.207233284134418e-05</v>
+        <v>0.0004571497556753457</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0002201859606429935</v>
+        <v>3.311270847916603e-05</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.000289361021714285</v>
+        <v>4.233002255205065e-05</v>
       </c>
       <c r="DW3" t="n">
-        <v>9.460071305511519e-05</v>
+        <v>2.234475687146187e-05</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0002091906208079308</v>
+        <v>0.0008353464072570205</v>
       </c>
       <c r="DY3" t="n">
-        <v>7.477309554815292e-05</v>
+        <v>0.0002889843017328531</v>
       </c>
       <c r="DZ3" t="n">
-        <v>4.037473991047591e-05</v>
+        <v>0.00011404488759581</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0003599365591071546</v>
+        <v>0.0002286015078425407</v>
       </c>
       <c r="EB3" t="n">
-        <v>4.789488593814895e-05</v>
+        <v>2.273311838507652e-05</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0002240606991108507</v>
+        <v>1.570053427712992e-06</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0006389335612766445</v>
+        <v>0.0005973619408905506</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.000105831291875802</v>
+        <v>0.0002694247232284397</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0008155129617080092</v>
+        <v>4.913341399515048e-05</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.000322008301736787</v>
+        <v>0.0007913319277577102</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0008451715111732483</v>
+        <v>2.153174500563182e-05</v>
       </c>
       <c r="EI3" t="n">
-        <v>6.630348798353225e-05</v>
+        <v>0.0003971823607571423</v>
       </c>
       <c r="EJ3" t="n">
-        <v>4.723298479802907e-05</v>
+        <v>6.34982279734686e-06</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0005411738529801369</v>
+        <v>0.0008060332620516419</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0001972615718841553</v>
+        <v>0.0004577178915496916</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0006340398686006665</v>
+        <v>0.0002321830834262073</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0003553844289854169</v>
+        <v>5.235691060079262e-05</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0001625678123673424</v>
+        <v>8.03443617769517e-05</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0002574642130639404</v>
+        <v>0.0002060271363006905</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.000419057352701202</v>
+        <v>0.0004518588830251247</v>
       </c>
       <c r="ER3" t="n">
-        <v>4.308525240048766e-05</v>
+        <v>0.0001465682726120576</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0003698187065310776</v>
+        <v>0.0002053776261163875</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0005983010632917285</v>
+        <v>0.0006809147889725864</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0006209486164152622</v>
+        <v>0.000182965857675299</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0001972852332983166</v>
+        <v>0.000791463244240731</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0004256983811501414</v>
+        <v>0.0004270111094228923</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0004609646566677839</v>
+        <v>9.493473044130951e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0003717484651133418</v>
+        <v>0.000579307263251394</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0008569182828068733</v>
+        <v>0.0001140032545663416</v>
       </c>
       <c r="FA3" t="n">
-        <v>4.26649276050739e-05</v>
+        <v>0.0003080485621467233</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0001772266841726378</v>
+        <v>7.26577709428966e-05</v>
       </c>
       <c r="FC3" t="n">
-        <v>3.956665750592947e-05</v>
+        <v>0.0005958579131402075</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0003063900221604854</v>
+        <v>0.0003826168831437826</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0001778056612238288</v>
+        <v>7.255340460687876e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.000151988526340574</v>
+        <v>9.151997073786333e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0003241887025069445</v>
+        <v>0.0002265083167003468</v>
       </c>
       <c r="FH3" t="n">
-        <v>3.846912295557559e-05</v>
+        <v>0.0004516391200013459</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0005042970879003406</v>
+        <v>0.0004511470906436443</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0005361097864806652</v>
+        <v>0.001043260213918984</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0003523154882714152</v>
+        <v>2.583733294159174e-05</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.0008823317475616932</v>
+        <v>2.955143281724304e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0002140319702448323</v>
+        <v>6.668124115094543e-05</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0002110494242515415</v>
+        <v>0.0002624416665639728</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0004082085215486586</v>
+        <v>0.000795417174231261</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0001401524350512773</v>
+        <v>0.0002298826293554157</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.001844589132815599</v>
+        <v>0.001424687448889017</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0003293241607025266</v>
+        <v>4.197117232251912e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0002252805570606142</v>
+        <v>0.0008156292606145144</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0007393391570076346</v>
+        <v>0.0001107500283978879</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0004545378615148365</v>
+        <v>0.0002101668942486867</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.000199643982341513</v>
+        <v>0.0001562230463605374</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0002721917990129441</v>
+        <v>0.001063230680301785</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0003828871122095734</v>
+        <v>0.0002279898035340011</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0004230280173942447</v>
+        <v>0.0008308776887133718</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.000256191153312102</v>
+        <v>4.174972855253145e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>7.336585258599371e-05</v>
+        <v>7.88627949077636e-06</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.329759834334254e-05</v>
+        <v>0.0001092109232558869</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0002200035669375211</v>
+        <v>0.0001629586768103763</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.00115550693590194</v>
+        <v>9.525065252091736e-07</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0001906847464852035</v>
+        <v>0.0008469669846817851</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0001554646587464958</v>
+        <v>0.0008518361719325185</v>
       </c>
       <c r="GG3" t="n">
-        <v>7.253005605889484e-05</v>
+        <v>7.495524187106639e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03633495792746544</v>
+        <v>0.00398004287853837</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002343344036489725</v>
+        <v>0.03659386932849884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01089442614465952</v>
+        <v>0.004232640843838453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005830049514770508</v>
+        <v>0.01098543964326382</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01236200146377087</v>
+        <v>0.002483980264514685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01351827848702669</v>
+        <v>0.008733545430004597</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03150025755167007</v>
+        <v>0.001798865618184209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0156230516731739</v>
+        <v>0.005393845494836569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003835131181403995</v>
+        <v>0.01011238247156143</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03280540183186531</v>
+        <v>0.005584750790148973</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01273652724921703</v>
+        <v>0.03344957157969475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00522921048104763</v>
+        <v>0.0001014585141092539</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001810282468795776</v>
+        <v>0.01065473351627588</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01621570810675621</v>
+        <v>0.001415127422660589</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006315138889476657</v>
+        <v>0.0007289614877663553</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01784328185021877</v>
+        <v>0.002074517775326967</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006195693742483854</v>
+        <v>0.001166949048638344</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02249550260603428</v>
+        <v>0.006212221458554268</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001195281278342009</v>
+        <v>0.005182648543268442</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002816915512084961</v>
+        <v>0.001276178751140833</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0004640037659555674</v>
+        <v>0.002600700361654162</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0007803310872986913</v>
+        <v>0.002179511357098818</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003000141587108374</v>
+        <v>0.01149260345846415</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006800048984587193</v>
+        <v>0.0005776489851996303</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01134847290813923</v>
+        <v>0.000342662853654474</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.004572978708893061</v>
+        <v>0.00717672286555171</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003291639033704996</v>
+        <v>0.002422197954729199</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.004107213579118252</v>
+        <v>0.002582950051873922</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.003439755877479911</v>
+        <v>0.004766195081174374</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.005766920745372772</v>
+        <v>0.003845110768452287</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01028039865195751</v>
+        <v>5.141017027199268e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01742848567664623</v>
+        <v>0.003134239697828889</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.001657224493101239</v>
+        <v>0.004899125546216965</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0003172867000102997</v>
+        <v>0.003112563164904714</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.001095963409170508</v>
+        <v>0.006836849730461836</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0007475275779142976</v>
+        <v>0.004352220334112644</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.001684889663010836</v>
+        <v>0.0007988241268321872</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.009307972155511379</v>
+        <v>0.004715161863714457</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0007466430542990565</v>
+        <v>0.00207586120814085</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.009965430945158005</v>
+        <v>9.35942807700485e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.002515817992389202</v>
+        <v>0.004390153102576733</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.004290674813091755</v>
+        <v>0.002414361573755741</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.002616753336042166</v>
+        <v>0.0004400036414153874</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01220596954226494</v>
+        <v>0.0002718414179980755</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.000316543853841722</v>
+        <v>0.000301430351100862</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0154197858646512</v>
+        <v>0.000109041720861569</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.005823132116347551</v>
+        <v>0.01807793229818344</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.296765059232712e-05</v>
+        <v>0.002756880596280098</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.00573361199349165</v>
+        <v>0.009449001401662827</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01396014168858528</v>
+        <v>0.01358475908637047</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.006055365316569805</v>
+        <v>0.007693142630159855</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.002368077635765076</v>
+        <v>0.004077163990586996</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.004986054729670286</v>
+        <v>0.01000344660133123</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0002728039398789406</v>
+        <v>0.006404458545148373</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.01473630964756012</v>
+        <v>0.002710310276597738</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.009973541833460331</v>
+        <v>0.01116941124200821</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.002752159722149372</v>
+        <v>0.002061477629467845</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.01399152539670467</v>
+        <v>0.003383888863027096</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002246777527034283</v>
+        <v>0.003470984753221273</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.002706867875531316</v>
+        <v>0.000952593982219696</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01163456588983536</v>
+        <v>0.0002869151649065316</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.02141237817704678</v>
+        <v>0.00337734934873879</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.007507980801165104</v>
+        <v>4.073539457749575e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.005799945443868637</v>
+        <v>0.001476802164688706</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.01892315596342087</v>
+        <v>0.0001783414627425373</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0002055896911770105</v>
+        <v>0.0008032195037230849</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.01867008022964001</v>
+        <v>0.004177652299404144</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.006483521312475204</v>
+        <v>0.004633187316358089</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.004758353810757399</v>
+        <v>0.001259259646758437</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0001844651997089386</v>
+        <v>0.001602309639565647</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.006574539467692375</v>
+        <v>0.0008047001902014017</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.001059508649632335</v>
+        <v>0.0009714348125271499</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.01406093779951334</v>
+        <v>0.003514137119054794</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.000246627489104867</v>
+        <v>0.01210984122008085</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0001119151711463928</v>
+        <v>0.0006240817019715905</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.01407167967408895</v>
+        <v>0.008168271742761135</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.009865662083029747</v>
+        <v>0.002834009937942028</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.001089530298486352</v>
+        <v>0.001240413286723197</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.00313041964545846</v>
+        <v>0.002003913978114724</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.007272480521351099</v>
+        <v>0.007431773468852043</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.003190266434103251</v>
+        <v>0.004588880110532045</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.005871838890016079</v>
+        <v>0.001772521412931383</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.006605952978134155</v>
+        <v>0.003995154518634081</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.002493567299097776</v>
+        <v>0.0009419058915227652</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.007974601350724697</v>
+        <v>0.002196225337684155</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.007717876695096493</v>
+        <v>0.001503031235188246</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0004280806751921773</v>
+        <v>0.001088690711185336</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.006047031376510859</v>
+        <v>0.001729821669869125</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.003259069751948118</v>
+        <v>0.0008909520111046731</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0001547947467770427</v>
+        <v>0.0005954369553364813</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.003862146288156509</v>
+        <v>0.006368448026478291</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.006715513300150633</v>
+        <v>0.0006502859760075808</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.00556518416851759</v>
+        <v>0.0003020760195795447</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0001949795987457037</v>
+        <v>0.002241804962977767</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.001509541645646095</v>
+        <v>0.002718143165111542</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.001593954861164093</v>
+        <v>0.00238377065397799</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.01625071465969086</v>
+        <v>0.006234429776668549</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.01925017312169075</v>
+        <v>0.007329234387725592</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.001898324815556407</v>
+        <v>1.397388405166566e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.007492654491215944</v>
+        <v>0.001523848273791373</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.006875971797853708</v>
+        <v>0.004380371421575546</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.001130393473431468</v>
+        <v>0.000155523608555086</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.007129190489649773</v>
+        <v>0.00228558387607336</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.003598039271309972</v>
+        <v>0.001338270376436412</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0001734347897581756</v>
+        <v>0.001248501357622445</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.003282471559941769</v>
+        <v>0.001683600246906281</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.002831063466146588</v>
+        <v>0.00141224660910666</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0002855336060747504</v>
+        <v>0.001473606564104557</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.00361314183101058</v>
+        <v>0.005610877647995949</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.004400410689413548</v>
+        <v>0.00257284939289093</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.005715113133192062</v>
+        <v>0.002777513116598129</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.02268999814987183</v>
+        <v>0.009956941939890385</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01415189448744059</v>
+        <v>0.00826428085565567</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.006609250791370869</v>
+        <v>0.0008479625685140491</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.006184534169733524</v>
+        <v>0.005909428000450134</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.003213773481547832</v>
+        <v>0.003790452610701323</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.01210993342101574</v>
+        <v>0.001533572794869542</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.00426513934507966</v>
+        <v>0.004592109471559525</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.005809736903756857</v>
+        <v>0.00413045659661293</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.001275647082366049</v>
+        <v>0.0008484710706397891</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.002147069200873375</v>
+        <v>1.521315425634384e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.01195181626826525</v>
+        <v>0.001900938572362065</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.001153659890405834</v>
+        <v>0.008207136765122414</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.00724196620285511</v>
+        <v>0.00354732945561409</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.006051380187273026</v>
+        <v>0.004103331360965967</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0006635724566876888</v>
+        <v>0.0001516274642199278</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.004659911617636681</v>
+        <v>0.00499797286465764</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.002088948152959347</v>
+        <v>0.002064626896753907</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.002587476512417197</v>
+        <v>0.001693029538728297</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.00663567753508687</v>
+        <v>0.001468354603275657</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.006574850529432297</v>
+        <v>0.001724809058941901</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.002160022966563702</v>
+        <v>0.002983631566166878</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.007965985685586929</v>
+        <v>0.002427461557090282</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.00454244390130043</v>
+        <v>0.002378201112151146</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.005270847119390965</v>
+        <v>0.005382924806326628</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.006533385254442692</v>
+        <v>0.001448370283469558</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.006902027875185013</v>
+        <v>0.001912121428176761</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.001679478446021676</v>
+        <v>0.0004223588621243834</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0006099343299865723</v>
+        <v>0.001224049599841237</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.008282514289021492</v>
+        <v>0.002120348159223795</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.004689020104706287</v>
+        <v>0.002335653640329838</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.003085966920480132</v>
+        <v>0.0001615629298612475</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.00840750802308321</v>
+        <v>0.0006337320664897561</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.000887726666405797</v>
+        <v>0.0006351774791255593</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.002471617888659239</v>
+        <v>0.002854818711057305</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.00584331015124917</v>
+        <v>0.003380886977538466</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.002875088481232524</v>
+        <v>0.00121031841263175</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.007983892224729061</v>
+        <v>0.0009753951453603804</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.008121604099869728</v>
+        <v>0.002857703948393464</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.000541506742592901</v>
+        <v>0.01122666709125042</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.009416009299457073</v>
+        <v>0.002300477121025324</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.003808866254985332</v>
+        <v>0.003293562447652221</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.002534304279834032</v>
+        <v>0.001624055905267596</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.008924843743443489</v>
+        <v>0.002086587948724627</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.01032239012420177</v>
+        <v>0.00453902268782258</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.001559532131068408</v>
+        <v>0.0008337250910699368</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.004383936058729887</v>
+        <v>0.00210784375667572</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.006341518834233284</v>
+        <v>0.0009129183599725366</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0006160674383863807</v>
+        <v>0.001256604213267565</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.003054532455280423</v>
+        <v>0.001501026563346386</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.003803260158747435</v>
+        <v>0.0005389312282204628</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.00165485858451575</v>
+        <v>0.0009228219278156757</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0002194014377892017</v>
+        <v>0.0001148780065705068</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01842107996344566</v>
+        <v>0.0009185753879137337</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.004159131087362766</v>
+        <v>0.004006281495094299</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.009098303504288197</v>
+        <v>0.001374949817545712</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.007151770405471325</v>
+        <v>0.003275040304288268</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.004190489184111357</v>
+        <v>0.001192827126942575</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.008282802067697048</v>
+        <v>0.00149119074922055</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.008583283983170986</v>
+        <v>0.002866942901164293</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.003749910742044449</v>
+        <v>0.004196170717477798</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.003826048690825701</v>
+        <v>0.002307931426912546</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.00594082148745656</v>
+        <v>0.009217929095029831</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.004774732515215874</v>
+        <v>0.001634357031434774</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.01068849675357342</v>
+        <v>0.001712916768155992</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01858734712004662</v>
+        <v>0.009267223998904228</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.01035081036388874</v>
+        <v>0.004475508816540241</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.003365217708051205</v>
+        <v>0.000819479813799262</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.01125724799931049</v>
+        <v>0.002299543470144272</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.007717154920101166</v>
+        <v>0.003230968955904245</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.007224336732178926</v>
+        <v>0.001207862747833133</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.009597978554666042</v>
+        <v>0.0008072555065155029</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.005961446091532707</v>
+        <v>0.001824188278988004</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.01366299204528332</v>
+        <v>0.001681042136624455</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.01356943231076002</v>
+        <v>0.01260822638869286</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.003305181628093123</v>
+        <v>0.002427856670692563</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0008014359045773745</v>
+        <v>0.003897917456924915</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.008990678936243057</v>
+        <v>0.004965947475284338</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.006357616279274225</v>
+        <v>0.001871315995231271</v>
       </c>
     </row>
     <row r="5">
@@ -3280,1140 +3280,1140 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.270920387876686e-07</v>
+        <v>0.0003186540561728179</v>
       </c>
       <c r="B6" t="n">
-        <v>5.465360572998179e-06</v>
+        <v>0.004092548508197069</v>
       </c>
       <c r="C6" t="n">
-        <v>1.172812289951253e-06</v>
+        <v>0.0005115841631777585</v>
       </c>
       <c r="D6" t="n">
-        <v>2.869952822948107e-06</v>
+        <v>0.001212428556755185</v>
       </c>
       <c r="E6" t="n">
-        <v>2.602065251267049e-06</v>
+        <v>0.001880763215012848</v>
       </c>
       <c r="F6" t="n">
-        <v>3.789908987528179e-06</v>
+        <v>0.0006514106644317508</v>
       </c>
       <c r="G6" t="n">
-        <v>2.385145535299671e-06</v>
+        <v>0.000405859318561852</v>
       </c>
       <c r="H6" t="n">
-        <v>2.055814775303588e-06</v>
+        <v>1.522079037385993e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>9.416813554707915e-06</v>
+        <v>9.815646626520902e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.165942644045572e-06</v>
+        <v>6.62874081172049e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.462092990957899e-06</v>
+        <v>0.002639419864863157</v>
       </c>
       <c r="L6" t="n">
-        <v>4.155524038651492e-06</v>
+        <v>0.0004057526821270585</v>
       </c>
       <c r="M6" t="n">
-        <v>2.881555246858625e-06</v>
+        <v>0.001059163711033762</v>
       </c>
       <c r="N6" t="n">
-        <v>2.787064204312628e-06</v>
+        <v>0.002139510586857796</v>
       </c>
       <c r="O6" t="n">
-        <v>1.484932795392524e-06</v>
+        <v>0.0007235259981825948</v>
       </c>
       <c r="P6" t="n">
-        <v>3.50349682776141e-06</v>
+        <v>0.0004483568482100964</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.729835162223026e-06</v>
+        <v>0.0007457278552465141</v>
       </c>
       <c r="R6" t="n">
-        <v>8.658253136673011e-06</v>
+        <v>5.694572610082105e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.536896661491483e-06</v>
+        <v>4.590798198478296e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>6.04946421844943e-07</v>
+        <v>0.0008311346755363047</v>
       </c>
       <c r="U6" t="n">
-        <v>1.689844907559745e-06</v>
+        <v>0.0003387146280147135</v>
       </c>
       <c r="V6" t="n">
-        <v>1.270221446247888e-06</v>
+        <v>0.0005165905458852649</v>
       </c>
       <c r="W6" t="n">
-        <v>1.143937879533041e-06</v>
+        <v>0.000106646868516691</v>
       </c>
       <c r="X6" t="n">
-        <v>2.143222843642434e-07</v>
+        <v>0.0005927015445195138</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.64215077550034e-06</v>
+        <v>0.0001682635047473013</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.126013426590362e-07</v>
+        <v>0.0004263409646227956</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.340388394055481e-06</v>
+        <v>0.0001592872431501746</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.257675633809413e-07</v>
+        <v>3.526086220517755e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.189322680758778e-06</v>
+        <v>0.0007677724934183061</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.71700219198101e-06</v>
+        <v>6.607199611607939e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.390809413554962e-06</v>
+        <v>2.016977850871626e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.393157896880439e-07</v>
+        <v>0.0001452694123145193</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.823089400611934e-07</v>
+        <v>3.873647074215114e-07</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.947342863990343e-06</v>
+        <v>0.0005595881375484169</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.562355400139495e-07</v>
+        <v>2.405303530395031e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.233192901712755e-07</v>
+        <v>0.0001301371230510995</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.31847770035165e-07</v>
+        <v>0.0003193412267137319</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.141321831710229e-06</v>
+        <v>0.0006750444881618023</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.066389245352184e-06</v>
+        <v>0.0002655090938787907</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.97712552107987e-07</v>
+        <v>0.0001102364039979875</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.480189777998021e-07</v>
+        <v>0.000480237154988572</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.151181656197878e-06</v>
+        <v>0.0007235553348436952</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.831826802525029e-07</v>
+        <v>0.0001922782248584554</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.840962568167015e-06</v>
+        <v>1.478901685914025e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.700805540849615e-07</v>
+        <v>0.0001836511364672333</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.846995701271226e-06</v>
+        <v>0.0004981246893294156</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.62927096880594e-06</v>
+        <v>0.003314241766929626</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.76804825666477e-06</v>
+        <v>0.0002080645499518141</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.047791213044547e-06</v>
+        <v>7.950619328767061e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.706215471131145e-06</v>
+        <v>0.0001783945772331208</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.043630269734422e-06</v>
+        <v>0.0003404316958039999</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.538640728744213e-06</v>
+        <v>7.542110688518733e-05</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.797964500838134e-06</v>
+        <v>0.000497628643643111</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.624637313099811e-06</v>
+        <v>0.0002251709520351142</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.998497282329481e-06</v>
+        <v>1.866397360572591e-05</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.171557525798562e-06</v>
+        <v>0.000590923591516912</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.854605898188311e-06</v>
+        <v>0.0003357896057423204</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.777285317279166e-07</v>
+        <v>0.0005695988074876368</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.61884508492949e-06</v>
+        <v>0.001554863178171217</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.299949528605794e-06</v>
+        <v>0.0002341830258956179</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.497419702900515e-06</v>
+        <v>0.0004022635112050921</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5.313209385349182e-06</v>
+        <v>0.0008345082751475275</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.598999117253697e-06</v>
+        <v>3.919626760762185e-05</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.376840373268351e-06</v>
+        <v>0.0004020005872007459</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.531372731733427e-06</v>
+        <v>0.001214139512740076</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.953396122189588e-06</v>
+        <v>0.000239555025473237</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.316013360039506e-07</v>
+        <v>0.0005529966438189149</v>
       </c>
       <c r="BP6" t="n">
-        <v>6.950475608391571e-07</v>
+        <v>0.001055708155035973</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.229177423236251e-07</v>
+        <v>0.0005462249391712248</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.461968622606946e-06</v>
+        <v>0.0001943672978086397</v>
       </c>
       <c r="BS6" t="n">
-        <v>7.162321935538785e-07</v>
+        <v>0.0001641629205550998</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.243944666384778e-06</v>
+        <v>4.826214353670366e-05</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.096633241104428e-06</v>
+        <v>0.0004047001129947603</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.300606868426257e-06</v>
+        <v>0.001857700408436358</v>
       </c>
       <c r="BW6" t="n">
-        <v>5.006754122405255e-08</v>
+        <v>0.0005908128223381937</v>
       </c>
       <c r="BX6" t="n">
-        <v>7.519718110415852e-07</v>
+        <v>7.327832281589508e-05</v>
       </c>
       <c r="BY6" t="n">
-        <v>9.017267643685045e-07</v>
+        <v>0.0004050538700539619</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.22798589075046e-08</v>
+        <v>0.0009724036208353937</v>
       </c>
       <c r="CA6" t="n">
-        <v>2.07624043468968e-06</v>
+        <v>0.0004230431804899126</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.500735152148991e-06</v>
+        <v>8.018985681701452e-05</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.964183750009397e-06</v>
+        <v>6.633309385506436e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>5.723935601054109e-07</v>
+        <v>7.222985732369125e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.776533736119745e-06</v>
+        <v>0.0007381530595012009</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.574442762830586e-07</v>
+        <v>3.400850255275145e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>5.638932520923845e-07</v>
+        <v>0.0002939848636742681</v>
       </c>
       <c r="CH6" t="n">
-        <v>2.468153752488433e-07</v>
+        <v>0.0001206463857670315</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.171930131884437e-07</v>
+        <v>0.0002219291491201147</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.349577125140058e-07</v>
+        <v>0.0001492998853791505</v>
       </c>
       <c r="CK6" t="n">
-        <v>8.491181233694078e-07</v>
+        <v>5.03351548104547e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>7.973135893735162e-07</v>
+        <v>5.174683974473737e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.679976776358671e-06</v>
+        <v>0.000764307682402432</v>
       </c>
       <c r="CN6" t="n">
-        <v>6.806164378758695e-07</v>
+        <v>0.0005531723727472126</v>
       </c>
       <c r="CO6" t="n">
-        <v>3.132777806058584e-07</v>
+        <v>0.0002158850838895887</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.955043899215525e-06</v>
+        <v>5.914749635849148e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.200248445660691e-06</v>
+        <v>0.0005810664733871818</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.365066850667063e-07</v>
+        <v>0.0004673563234973699</v>
       </c>
       <c r="CS6" t="n">
-        <v>7.931317327347642e-07</v>
+        <v>0.0001303037570323795</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.710817628008954e-06</v>
+        <v>0.0004268303164280951</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.617737780179596e-06</v>
+        <v>0.0002689890388865024</v>
       </c>
       <c r="CV6" t="n">
-        <v>8.884548492460453e-07</v>
+        <v>8.050693577388301e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.263726403522014e-06</v>
+        <v>0.0004924479871988297</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.910153623110091e-07</v>
+        <v>0.0001566281571285799</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.138983970529807e-07</v>
+        <v>0.0004854049475397915</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.996723307864158e-07</v>
+        <v>9.570152178639546e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>9.119860351347597e-07</v>
+        <v>0.0003334076900500804</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.922779517826712e-07</v>
+        <v>0.0001375325955450535</v>
       </c>
       <c r="DC6" t="n">
-        <v>8.711512009540456e-07</v>
+        <v>3.17244375764858e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.633480110285745e-06</v>
+        <v>6.232002488104627e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.04308855952695e-06</v>
+        <v>0.0004649999318644404</v>
       </c>
       <c r="DF6" t="n">
-        <v>3.959721198043553e-06</v>
+        <v>0.001918787718750536</v>
       </c>
       <c r="DG6" t="n">
-        <v>5.582763606071239e-06</v>
+        <v>2.655595744727179e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.612840947018412e-06</v>
+        <v>0.001030662329867482</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.632931455082144e-06</v>
+        <v>0.0005878699012100697</v>
       </c>
       <c r="DJ6" t="n">
-        <v>4.145945695199771e-06</v>
+        <v>0.000112928195449058</v>
       </c>
       <c r="DK6" t="n">
-        <v>4.577639629133046e-06</v>
+        <v>0.001098057138733566</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.373993538640207e-06</v>
+        <v>0.0001846669474616647</v>
       </c>
       <c r="DM6" t="n">
-        <v>8.385367777918873e-07</v>
+        <v>0.0002925548178609461</v>
       </c>
       <c r="DN6" t="n">
-        <v>7.666449164389633e-07</v>
+        <v>0.0007619863608852029</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.539474396849982e-06</v>
+        <v>0.0006914300029166043</v>
       </c>
       <c r="DP6" t="n">
-        <v>2.09980726140202e-06</v>
+        <v>5.289090040605515e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>8.468657028970483e-07</v>
+        <v>0.0004997548530809581</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.236043885910476e-06</v>
+        <v>5.68574178032577e-05</v>
       </c>
       <c r="DS6" t="n">
-        <v>6.245103918445238e-07</v>
+        <v>0.000199239031644538</v>
       </c>
       <c r="DT6" t="n">
-        <v>3.661585878944607e-07</v>
+        <v>0.0001346401404589415</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.535501147984178e-07</v>
+        <v>0.0003960008325520903</v>
       </c>
       <c r="DV6" t="n">
-        <v>2.903447864355257e-07</v>
+        <v>1.952576167241205e-05</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.442338316337555e-06</v>
+        <v>0.0001094414765248075</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.573120809756801e-07</v>
+        <v>0.0002084380685118958</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.47398901365159e-07</v>
+        <v>0.0003274720802437514</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.593509975667985e-07</v>
+        <v>0.0004115364572498947</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.306249032495543e-06</v>
+        <v>0.0008011800819076598</v>
       </c>
       <c r="EB6" t="n">
-        <v>5.677441095031099e-07</v>
+        <v>0.0003397295949980617</v>
       </c>
       <c r="EC6" t="n">
-        <v>6.318276746242191e-07</v>
+        <v>0.0001996167266042903</v>
       </c>
       <c r="ED6" t="n">
-        <v>4.068530188305886e-07</v>
+        <v>6.637444312218577e-05</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.251671903901297e-07</v>
+        <v>1.353842890239321e-05</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.067649009200977e-06</v>
+        <v>0.0002711463603191078</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.212727733625798e-06</v>
+        <v>7.295847899513319e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.837844791907628e-07</v>
+        <v>6.510633829748258e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.223075628331571e-06</v>
+        <v>7.367460057139397e-06</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.690704832275514e-07</v>
+        <v>0.0002338291524210945</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.367620029668615e-06</v>
+        <v>9.641003998694941e-06</v>
       </c>
       <c r="EL6" t="n">
-        <v>9.038328130372975e-07</v>
+        <v>0.0002493398787919432</v>
       </c>
       <c r="EM6" t="n">
-        <v>9.380787560075987e-07</v>
+        <v>3.933677362510934e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.740202151268022e-06</v>
+        <v>1.195574532175669e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.040681240738195e-06</v>
+        <v>0.0005155570688657463</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.244093138870085e-06</v>
+        <v>9.66937659541145e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>5.765321375861276e-08</v>
+        <v>0.0002499773981980979</v>
       </c>
       <c r="ER6" t="n">
-        <v>4.727220925815345e-08</v>
+        <v>0.0005004553822800517</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.389248265899369e-06</v>
+        <v>0.0002204651536885649</v>
       </c>
       <c r="ET6" t="n">
-        <v>2.171233518311055e-06</v>
+        <v>0.0009455401450395584</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.998590732910088e-07</v>
+        <v>0.0001212281495099887</v>
       </c>
       <c r="EV6" t="n">
-        <v>5.674019689649867e-07</v>
+        <v>0.0001778235018718988</v>
       </c>
       <c r="EW6" t="n">
-        <v>9.851798949966906e-07</v>
+        <v>0.0001906540564959869</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.16079797862767e-06</v>
+        <v>8.721918129594997e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.194123342429521e-06</v>
+        <v>0.0004417955933604389</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.455342039160314e-07</v>
+        <v>2.313748882443178e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>7.049085297694546e-07</v>
+        <v>0.0003863034653477371</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.084907239601307e-07</v>
+        <v>5.463717025122605e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.172171323560178e-06</v>
+        <v>0.000357942160917446</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.971014450598886e-08</v>
+        <v>0.0001779897575033829</v>
       </c>
       <c r="FE6" t="n">
-        <v>6.489598831649346e-07</v>
+        <v>2.568182208051439e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.60213642175222e-06</v>
+        <v>7.929016283014789e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>8.311189390042273e-07</v>
+        <v>0.0002592837845440954</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.28684299941051e-07</v>
+        <v>0.0005062047275714576</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.256222162737686e-06</v>
+        <v>0.0001497093180660158</v>
       </c>
       <c r="FJ6" t="n">
-        <v>2.144945483451011e-06</v>
+        <v>2.864380439859815e-05</v>
       </c>
       <c r="FK6" t="n">
-        <v>7.249780082929647e-07</v>
+        <v>0.0003339334507472813</v>
       </c>
       <c r="FL6" t="n">
-        <v>8.055091029746109e-07</v>
+        <v>4.735461698146537e-05</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.635234750414384e-07</v>
+        <v>6.17537516518496e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>5.825446010021551e-07</v>
+        <v>1.708326817606576e-05</v>
       </c>
       <c r="FO6" t="n">
-        <v>7.668239163649559e-07</v>
+        <v>3.10882278427016e-05</v>
       </c>
       <c r="FP6" t="n">
-        <v>3.608582801462035e-07</v>
+        <v>0.0005623201723210514</v>
       </c>
       <c r="FQ6" t="n">
-        <v>9.290378670812061e-07</v>
+        <v>0.0003725503338500857</v>
       </c>
       <c r="FR6" t="n">
-        <v>8.311155852425145e-08</v>
+        <v>6.978950113989413e-05</v>
       </c>
       <c r="FS6" t="n">
-        <v>4.090491984243272e-06</v>
+        <v>0.0004713781818281859</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.191571641356859e-08</v>
+        <v>0.00142721354495734</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.215429506373766e-06</v>
+        <v>4.509139034780674e-05</v>
       </c>
       <c r="FV6" t="n">
-        <v>9.313563396062818e-07</v>
+        <v>0.0002459916286170483</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.319259806426999e-08</v>
+        <v>0.0002527271863073111</v>
       </c>
       <c r="FX6" t="n">
-        <v>8.505128334945766e-07</v>
+        <v>4.744761099573225e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.17258787213359e-06</v>
+        <v>0.0001467526017222553</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2.984359070978826e-06</v>
+        <v>0.0007122766110114753</v>
       </c>
       <c r="GA6" t="n">
-        <v>2.173238954128465e-06</v>
+        <v>0.0002104996237903833</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.602530912554357e-06</v>
+        <v>0.0003018908319063485</v>
       </c>
       <c r="GC6" t="n">
-        <v>6.28881551278937e-08</v>
+        <v>0.000374739378457889</v>
       </c>
       <c r="GD6" t="n">
-        <v>9.159322189589147e-07</v>
+        <v>0.0006488955114036798</v>
       </c>
       <c r="GE6" t="n">
-        <v>2.632741598063149e-07</v>
+        <v>0.0006307339644990861</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.809079662962176e-06</v>
+        <v>0.0004040390194859356</v>
       </c>
       <c r="GG6" t="n">
-        <v>3.944399509236973e-07</v>
+        <v>0.0002305052330484614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.050338561180979e-05</v>
+        <v>2.78918378171511e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>8.962870197137818e-06</v>
+        <v>0.005210076458752155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001379413006361574</v>
+        <v>0.0004208498867228627</v>
       </c>
       <c r="D7" t="n">
-        <v>5.840111771249212e-05</v>
+        <v>0.003014142857864499</v>
       </c>
       <c r="E7" t="n">
-        <v>7.060746429488063e-05</v>
+        <v>0.0008912230841815472</v>
       </c>
       <c r="F7" t="n">
-        <v>1.997168965317542e-06</v>
+        <v>0.0004817098961211741</v>
       </c>
       <c r="G7" t="n">
-        <v>2.335896715521812e-05</v>
+        <v>0.0005420346860773861</v>
       </c>
       <c r="H7" t="n">
-        <v>3.12423835566733e-05</v>
+        <v>0.0005552138900384307</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001126373681472614</v>
+        <v>0.0003040781593881547</v>
       </c>
       <c r="J7" t="n">
-        <v>2.411681998637505e-05</v>
+        <v>0.0005570349167101085</v>
       </c>
       <c r="K7" t="n">
-        <v>3.035217923752498e-05</v>
+        <v>0.00369690265506506</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001485443644924089</v>
+        <v>0.0001336867862846702</v>
       </c>
       <c r="M7" t="n">
-        <v>1.860279371612705e-05</v>
+        <v>0.002789786783978343</v>
       </c>
       <c r="N7" t="n">
-        <v>3.269765147706494e-05</v>
+        <v>0.001656508073210716</v>
       </c>
       <c r="O7" t="n">
-        <v>6.039343134034425e-06</v>
+        <v>0.001222898368723691</v>
       </c>
       <c r="P7" t="n">
-        <v>3.444814137765206e-05</v>
+        <v>0.0002688367676455528</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.300790846580639e-05</v>
+        <v>0.0003061383322346956</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001327818317804486</v>
+        <v>3.162509528920054e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>3.531454240146559e-06</v>
+        <v>0.0002255481231259182</v>
       </c>
       <c r="T7" t="n">
-        <v>5.376181798055768e-05</v>
+        <v>0.001012777909636497</v>
       </c>
       <c r="U7" t="n">
-        <v>6.689748715871247e-06</v>
+        <v>0.0001981313980650157</v>
       </c>
       <c r="V7" t="n">
-        <v>3.288130756118335e-05</v>
+        <v>0.0005192059325054288</v>
       </c>
       <c r="W7" t="n">
-        <v>2.701645644265227e-05</v>
+        <v>2.436129580019042e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>6.044501787982881e-07</v>
+        <v>0.0006676185876131058</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.753361620008945e-06</v>
+        <v>0.0005522912251763046</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.2901851227507e-05</v>
+        <v>0.0002727021346800029</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.076299617532641e-05</v>
+        <v>0.0003582920471671969</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.719070137885865e-06</v>
+        <v>0.0005017836228944361</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.199771971500013e-06</v>
+        <v>0.001040791277773678</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.333759978995658e-06</v>
+        <v>0.0001318476861342788</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.307444083271548e-05</v>
+        <v>1.502975646872073e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.561489782237913e-05</v>
+        <v>0.000410841079428792</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.256100535509177e-05</v>
+        <v>0.0001347681827610359</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.234007974446286e-06</v>
+        <v>0.0001738855644362047</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.761429590871558e-05</v>
+        <v>0.0001957959611900151</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.459831663756631e-05</v>
+        <v>9.716170461615548e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.040858660417143e-05</v>
+        <v>0.0003388368641026318</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.70930320059415e-05</v>
+        <v>0.0004698047123383731</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.647788490634412e-06</v>
+        <v>0.0001851955312304199</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.10255693673389e-05</v>
+        <v>0.0001629266625968739</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.825894105422776e-05</v>
+        <v>0.000659769109915942</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.446071059443057e-05</v>
+        <v>0.0005204962799325585</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.794098913407652e-06</v>
+        <v>0.0002687385713215917</v>
       </c>
       <c r="AR7" t="n">
-        <v>8.225818419305142e-06</v>
+        <v>0.000298759201541543</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.369146502838703e-06</v>
+        <v>0.0002139188145520166</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.683649265440181e-05</v>
+        <v>0.0005253132549114525</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.362899951753207e-05</v>
+        <v>0.004002860281616449</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.000102621124824509</v>
+        <v>0.0002367648266954347</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.350243034423329e-05</v>
+        <v>0.000448419654276222</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.316854630014859e-07</v>
+        <v>0.0002826930431183428</v>
       </c>
       <c r="AY7" t="n">
-        <v>6.905318150529638e-05</v>
+        <v>0.0001222278515342623</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6.445698090828955e-07</v>
+        <v>7.239181286422536e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.272837016585981e-05</v>
+        <v>0.0002101837744703516</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.243024886818603e-05</v>
+        <v>8.564588642911986e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.266819253942231e-06</v>
+        <v>0.0002298754843650386</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.848540887294803e-05</v>
+        <v>0.000905645196326077</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.551218833308667e-05</v>
+        <v>0.001034985296428204</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.525303741800599e-05</v>
+        <v>0.0005982050206512213</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.721410783124156e-05</v>
+        <v>0.001488585025072098</v>
       </c>
       <c r="BH7" t="n">
-        <v>3.066096542170271e-05</v>
+        <v>0.0005505772423930466</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.072891402349342e-05</v>
+        <v>0.000490587844979018</v>
       </c>
       <c r="BJ7" t="n">
-        <v>6.637468231929233e-06</v>
+        <v>0.0004253236693330109</v>
       </c>
       <c r="BK7" t="n">
-        <v>4.121432084502885e-06</v>
+        <v>0.0001005513913696632</v>
       </c>
       <c r="BL7" t="n">
-        <v>9.173985745292157e-06</v>
+        <v>0.0007485791575163603</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.304669123986969e-06</v>
+        <v>0.001281539909541607</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.925670560216531e-05</v>
+        <v>0.00052640464855358</v>
       </c>
       <c r="BO7" t="n">
-        <v>9.468913958698977e-06</v>
+        <v>0.000107223677332513</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.728812276269309e-05</v>
+        <v>0.0006702861282974482</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.382176717219409e-06</v>
+        <v>0.0005716145387850702</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.382322261633817e-05</v>
+        <v>4.978671495337039e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>5.06186370330397e-05</v>
+        <v>0.00021809694590047</v>
       </c>
       <c r="BT7" t="n">
-        <v>3.255144110880792e-05</v>
+        <v>0.0002179806906497106</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.823328784666955e-05</v>
+        <v>0.0003610792919062078</v>
       </c>
       <c r="BV7" t="n">
-        <v>6.368096819642233e-06</v>
+        <v>0.002003242960199714</v>
       </c>
       <c r="BW7" t="n">
-        <v>3.86054343834985e-05</v>
+        <v>0.0005038738017901778</v>
       </c>
       <c r="BX7" t="n">
-        <v>2.548317206674255e-05</v>
+        <v>0.0004168159503024071</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.911808794829994e-05</v>
+        <v>0.000215879874303937</v>
       </c>
       <c r="BZ7" t="n">
-        <v>3.526166665324126e-06</v>
+        <v>0.0008302560891024768</v>
       </c>
       <c r="CA7" t="n">
-        <v>4.783478743775049e-06</v>
+        <v>0.0002525883610360324</v>
       </c>
       <c r="CB7" t="n">
-        <v>5.477972990775015e-06</v>
+        <v>8.751085260882974e-05</v>
       </c>
       <c r="CC7" t="n">
-        <v>5.641189272864722e-05</v>
+        <v>0.0003294898779131472</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.537151547381654e-05</v>
+        <v>0.0001816370786400512</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.885384153865743e-05</v>
+        <v>0.0009147225064225495</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.558368032623548e-05</v>
+        <v>0.0003367456374689937</v>
       </c>
       <c r="CG7" t="n">
-        <v>4.78403308079578e-06</v>
+        <v>0.0002204436168540269</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.223800700245192e-05</v>
+        <v>0.0002208732475992292</v>
       </c>
       <c r="CI7" t="n">
-        <v>1.384307233820437e-05</v>
+        <v>0.000177223191712983</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.194894821310299e-06</v>
+        <v>0.0001574654597789049</v>
       </c>
       <c r="CK7" t="n">
-        <v>6.440435299737146e-06</v>
+        <v>2.643277184688486e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.712625453365035e-05</v>
+        <v>0.0002190446830354631</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.073245221050456e-05</v>
+        <v>0.0009559726458974183</v>
       </c>
       <c r="CN7" t="n">
-        <v>4.168569648754783e-05</v>
+        <v>0.0008382261730730534</v>
       </c>
       <c r="CO7" t="n">
-        <v>1.637682180444244e-05</v>
+        <v>0.0002723449724726379</v>
       </c>
       <c r="CP7" t="n">
-        <v>8.964594599092379e-06</v>
+        <v>0.001232554321177304</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.379932422831189e-06</v>
+        <v>0.0008772949804551899</v>
       </c>
       <c r="CR7" t="n">
-        <v>9.229388524545357e-06</v>
+        <v>0.0006131136906333268</v>
       </c>
       <c r="CS7" t="n">
-        <v>3.751973281396204e-06</v>
+        <v>0.0006439337157644331</v>
       </c>
       <c r="CT7" t="n">
-        <v>6.380179456755286e-06</v>
+        <v>0.0008770506829023361</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.716601349879056e-05</v>
+        <v>5.939398761256598e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.669949415372685e-05</v>
+        <v>0.0001780903694452718</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.277702358493116e-05</v>
+        <v>0.0007607594016008079</v>
       </c>
       <c r="CX7" t="n">
-        <v>1.913369851536117e-05</v>
+        <v>0.0004353605909273028</v>
       </c>
       <c r="CY7" t="n">
-        <v>6.77986236041761e-06</v>
+        <v>0.0004872205317951739</v>
       </c>
       <c r="CZ7" t="n">
-        <v>2.624668195494451e-05</v>
+        <v>0.0002638742735143751</v>
       </c>
       <c r="DA7" t="n">
-        <v>1.266497019969393e-05</v>
+        <v>0.0002265194925712422</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.374916786924587e-06</v>
+        <v>0.0001721735898172483</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.817150849907193e-06</v>
+        <v>0.000136007642140612</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.966526906471699e-05</v>
+        <v>0.0001752873213263229</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.826341005857103e-05</v>
+        <v>0.0003331997722852975</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.743506749742664e-05</v>
+        <v>0.000776281114667654</v>
       </c>
       <c r="DG7" t="n">
-        <v>4.153956251684576e-05</v>
+        <v>8.017869549803436e-05</v>
       </c>
       <c r="DH7" t="n">
-        <v>3.456194463069551e-05</v>
+        <v>0.0009403236326761544</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.451156367693329e-05</v>
+        <v>0.0002064547734335065</v>
       </c>
       <c r="DJ7" t="n">
-        <v>3.617741094785742e-05</v>
+        <v>0.0001878282346297055</v>
       </c>
       <c r="DK7" t="n">
-        <v>2.830946323229e-05</v>
+        <v>0.0005955584347248077</v>
       </c>
       <c r="DL7" t="n">
-        <v>7.459801054210402e-06</v>
+        <v>0.000102331701782532</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.314078301424161e-05</v>
+        <v>0.0001220896519953385</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.208448338729795e-05</v>
+        <v>0.000253706966759637</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.300643452850636e-05</v>
+        <v>0.0002459887764416635</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.970178345800377e-05</v>
+        <v>0.0005396072519943118</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.453446202503983e-05</v>
+        <v>0.0001193088974105194</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.965241608559154e-06</v>
+        <v>0.000468472542706877</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.93711730389623e-05</v>
+        <v>0.0002951868809759617</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.416583472746424e-08</v>
+        <v>9.248306741937995e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>5.791061994386837e-06</v>
+        <v>2.662078259163536e-05</v>
       </c>
       <c r="DV7" t="n">
-        <v>3.147995448671281e-05</v>
+        <v>0.0003062364994548261</v>
       </c>
       <c r="DW7" t="n">
-        <v>4.701922080130316e-06</v>
+        <v>0.0001524042017990723</v>
       </c>
       <c r="DX7" t="n">
-        <v>4.78258652947261e-06</v>
+        <v>0.0003193509764969349</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.111966503231088e-05</v>
+        <v>0.000477619789307937</v>
       </c>
       <c r="DZ7" t="n">
-        <v>5.978538865747396e-06</v>
+        <v>0.00015574338613078</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.864077421487309e-05</v>
+        <v>0.0005289659020490944</v>
       </c>
       <c r="EB7" t="n">
-        <v>2.895025772886584e-06</v>
+        <v>0.0001315373665420339</v>
       </c>
       <c r="EC7" t="n">
-        <v>8.319471817230806e-06</v>
+        <v>0.0001647153694648296</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.536908894195221e-05</v>
+        <v>1.357379733235575e-05</v>
       </c>
       <c r="EE7" t="n">
-        <v>5.792065167042892e-06</v>
+        <v>1.633179635973647e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.455428875691723e-05</v>
+        <v>0.0001431284035788849</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.571148070273921e-05</v>
+        <v>0.000494997831992805</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.667988180997781e-05</v>
+        <v>0.0002290081174578518</v>
       </c>
       <c r="EI7" t="n">
-        <v>9.750145181897096e-06</v>
+        <v>0.0004492556618060917</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.708218405838124e-06</v>
+        <v>0.000318948325002566</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.440671621821821e-05</v>
+        <v>0.0001527151616755873</v>
       </c>
       <c r="EL7" t="n">
-        <v>4.647052719519706e-06</v>
+        <v>0.0001728929055389017</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.019642124651e-05</v>
+        <v>0.0001037023612298071</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.002846875053365e-05</v>
+        <v>9.434476669412106e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>2.45328301389236e-05</v>
+        <v>0.0002943945000879467</v>
       </c>
       <c r="EP7" t="n">
-        <v>9.138342647929676e-06</v>
+        <v>0.0007279895362444222</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.727740891510621e-05</v>
+        <v>0.0002987654879689217</v>
       </c>
       <c r="ER7" t="n">
-        <v>2.474101893312763e-05</v>
+        <v>0.0003610089188441634</v>
       </c>
       <c r="ES7" t="n">
-        <v>4.826614713238087e-06</v>
+        <v>0.0003007441991940141</v>
       </c>
       <c r="ET7" t="n">
-        <v>9.555544693284901e-07</v>
+        <v>0.0005074007785879076</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.428494942956604e-05</v>
+        <v>0.000508638215251267</v>
       </c>
       <c r="EV7" t="n">
-        <v>2.589971018096549e-06</v>
+        <v>0.0002777944609988481</v>
       </c>
       <c r="EW7" t="n">
-        <v>3.923425902030431e-05</v>
+        <v>7.067857950460166e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.124929713114398e-05</v>
+        <v>1.669690027483739e-05</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.468737355025951e-05</v>
+        <v>0.0007782176253385842</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2.183751712436788e-05</v>
+        <v>0.0002623012405820191</v>
       </c>
       <c r="FA7" t="n">
-        <v>5.438168045657221e-06</v>
+        <v>0.0003606658719945699</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.111631354433484e-05</v>
+        <v>0.0001716882106848061</v>
       </c>
       <c r="FC7" t="n">
-        <v>9.362636774312705e-06</v>
+        <v>0.0003250377776566893</v>
       </c>
       <c r="FD7" t="n">
-        <v>4.159434411121765e-06</v>
+        <v>0.0002174800029024482</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.011926360661164e-05</v>
+        <v>6.529565143864602e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>2.805332405841909e-05</v>
+        <v>0.0002530165656935424</v>
       </c>
       <c r="FG7" t="n">
-        <v>2.670520643732743e-06</v>
+        <v>0.0002229143719887361</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.433995748811867e-07</v>
+        <v>4.260151035850868e-05</v>
       </c>
       <c r="FI7" t="n">
-        <v>2.179065631935373e-05</v>
+        <v>0.0003383861039765179</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.113764301408082e-05</v>
+        <v>0.0005344368983060122</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.947212695085909e-05</v>
+        <v>0.0003316332004033029</v>
       </c>
       <c r="FL7" t="n">
-        <v>2.526401476643514e-05</v>
+        <v>0.0001921970106195658</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.73875978362048e-05</v>
+        <v>5.567001790041104e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>8.841950148053002e-06</v>
+        <v>0.0002022594126174226</v>
       </c>
       <c r="FO7" t="n">
-        <v>2.569647404015996e-05</v>
+        <v>0.0001401019108016044</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.454252742405515e-05</v>
+        <v>0.0004120779340155423</v>
       </c>
       <c r="FQ7" t="n">
-        <v>2.74062404059805e-05</v>
+        <v>0.0002244530769530684</v>
       </c>
       <c r="FR7" t="n">
-        <v>2.008418596233241e-05</v>
+        <v>0.0002574184036348015</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.836505362007301e-05</v>
+        <v>0.0005714208818972111</v>
       </c>
       <c r="FT7" t="n">
-        <v>3.363838550285436e-05</v>
+        <v>0.0002568881609477103</v>
       </c>
       <c r="FU7" t="n">
-        <v>1.106256968341768e-05</v>
+        <v>0.0002401087986072525</v>
       </c>
       <c r="FV7" t="n">
-        <v>6.926425612618914e-06</v>
+        <v>0.0001587971346452832</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.527629021642497e-06</v>
+        <v>2.507313183741644e-05</v>
       </c>
       <c r="FX7" t="n">
-        <v>2.306982969457749e-05</v>
+        <v>0.0002651479444466531</v>
       </c>
       <c r="FY7" t="n">
-        <v>2.20191268454073e-05</v>
+        <v>0.0009261271916329861</v>
       </c>
       <c r="FZ7" t="n">
-        <v>2.688811036932748e-05</v>
+        <v>0.0002670289250090718</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.344840939054848e-06</v>
+        <v>8.003777475096285e-05</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.205436951247975e-05</v>
+        <v>1.028632868838031e-05</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.445982616132824e-05</v>
+        <v>0.0003160198975820094</v>
       </c>
       <c r="GD7" t="n">
-        <v>3.069756712648086e-05</v>
+        <v>0.0006541779730468988</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.941497066582087e-05</v>
+        <v>0.001321158255450428</v>
       </c>
       <c r="GF7" t="n">
-        <v>4.343754335423e-05</v>
+        <v>0.0001385036885039881</v>
       </c>
       <c r="GG7" t="n">
-        <v>5.085660632175859e-06</v>
+        <v>0.0001849523687269539</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.63734534001037e-09</v>
+        <v>1.914637337563363e-09</v>
       </c>
       <c r="B9" t="n">
-        <v>5.392358559674904e-09</v>
+        <v>4.789491914181099e-09</v>
       </c>
       <c r="C9" t="n">
-        <v>5.867467223197309e-08</v>
+        <v>5.425180860108014e-10</v>
       </c>
       <c r="D9" t="n">
-        <v>2.857323710969695e-09</v>
+        <v>9.362485897668194e-09</v>
       </c>
       <c r="E9" t="n">
-        <v>5.138179304253754e-08</v>
+        <v>2.553423028572865e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219671202396967e-08</v>
+        <v>2.610389127077894e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>6.219656345507474e-09</v>
+        <v>3.237477785855702e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>2.444396240974811e-09</v>
+        <v>4.127293229405637e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>2.907719753864058e-08</v>
+        <v>3.491788802545415e-10</v>
       </c>
       <c r="J9" t="n">
-        <v>1.761913726028297e-09</v>
+        <v>2.77575495921667e-09</v>
       </c>
       <c r="K9" t="n">
-        <v>8.156829101046981e-10</v>
+        <v>2.458758974199782e-09</v>
       </c>
       <c r="L9" t="n">
-        <v>5.874399278127385e-08</v>
+        <v>1.356834505861215e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>3.917449920010085e-09</v>
+        <v>5.477776898743514e-09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.401747861175863e-08</v>
+        <v>1.493775769745298e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>1.122448534118803e-08</v>
+        <v>3.515403301790343e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>9.185870730732404e-09</v>
+        <v>1.273493976938767e-09</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.879709803949027e-09</v>
+        <v>2.62120436467228e-09</v>
       </c>
       <c r="R9" t="n">
-        <v>3.186055508308527e-08</v>
+        <v>1.485223888320064e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>5.120969870375802e-09</v>
+        <v>1.188867476686895e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>1.29027295514561e-08</v>
+        <v>7.429870052533261e-10</v>
       </c>
       <c r="U9" t="n">
-        <v>7.551111735892846e-09</v>
+        <v>6.043276989942115e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>1.547135752844042e-08</v>
+        <v>8.002960516506619e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>9.770968922850898e-09</v>
+        <v>1.579257835615522e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>5.691658810924594e-10</v>
+        <v>4.415941501356713e-10</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.746062819473764e-09</v>
+        <v>3.140050663930083e-09</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.712766591007949e-09</v>
+        <v>3.280378052528121e-11</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.771210424640685e-09</v>
+        <v>1.393668069837872e-09</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.239660705314009e-09</v>
+        <v>1.029326623935845e-10</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.501651661494634e-09</v>
+        <v>3.235416656810486e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.868759783174028e-09</v>
+        <v>5.045497353250994e-11</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.948792652394786e-10</v>
+        <v>1.109298541912551e-09</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.25225105232596e-09</v>
+        <v>1.605062860399187e-09</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.165886746676506e-09</v>
+        <v>1.316730946498978e-09</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.892862755425995e-09</v>
+        <v>8.290346187322939e-10</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.245608676787469e-08</v>
+        <v>7.222694664577034e-10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.255211845574422e-08</v>
+        <v>1.756726708546097e-10</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.761714578194187e-09</v>
+        <v>6.510886274568861e-10</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.956068000439018e-09</v>
+        <v>6.105691507940492e-10</v>
       </c>
       <c r="AM9" t="n">
-        <v>9.262699940393304e-09</v>
+        <v>4.170304934714153e-10</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.482435838644051e-09</v>
+        <v>3.582840968352485e-10</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.604973901147559e-09</v>
+        <v>4.905134076693685e-10</v>
       </c>
       <c r="AP9" t="n">
-        <v>8.16085243826592e-09</v>
+        <v>4.021362132178297e-10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.313127798307505e-11</v>
+        <v>1.224396917187676e-09</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.251353243247877e-09</v>
+        <v>5.409749870288749e-10</v>
       </c>
       <c r="AS9" t="n">
-        <v>7.682605107639517e-10</v>
+        <v>8.398453599234301e-10</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.656035557104587e-09</v>
+        <v>1.330751620010062e-10</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.217914658013797e-11</v>
+        <v>3.082161637024683e-09</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.429694134775673e-08</v>
+        <v>5.367287517210606e-11</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.328522233507329e-10</v>
+        <v>3.61492991096668e-09</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.212948141926518e-08</v>
+        <v>1.016574824319605e-09</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.225519655345124e-09</v>
+        <v>1.272784377892577e-10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.421298355732461e-09</v>
+        <v>5.558828397589366e-10</v>
       </c>
       <c r="BA9" t="n">
-        <v>7.48789474869227e-09</v>
+        <v>1.73860745245058e-10</v>
       </c>
       <c r="BB9" t="n">
-        <v>7.402887192142771e-09</v>
+        <v>1.71124248105059e-09</v>
       </c>
       <c r="BC9" t="n">
-        <v>5.670795832912745e-09</v>
+        <v>1.141258421100133e-09</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.213842359959472e-09</v>
+        <v>1.349971245900861e-10</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.368952856102169e-08</v>
+        <v>9.224931929452396e-10</v>
       </c>
       <c r="BF9" t="n">
-        <v>4.084780569346691e-10</v>
+        <v>9.745407814065743e-10</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.291466927317742e-08</v>
+        <v>1.300127006054197e-09</v>
       </c>
       <c r="BH9" t="n">
-        <v>7.658303324831195e-09</v>
+        <v>1.235225116635874e-10</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.1808234390287e-09</v>
+        <v>9.062154360250929e-10</v>
       </c>
       <c r="BJ9" t="n">
-        <v>6.118586082237698e-09</v>
+        <v>3.782220314718643e-09</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.401601027050674e-09</v>
+        <v>1.081682104997483e-10</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.3741201771752e-09</v>
+        <v>1.001740135286866e-09</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.015231787526716e-09</v>
+        <v>4.501850281446451e-10</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.919533687555486e-08</v>
+        <v>7.757632314309149e-10</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.766711526547283e-09</v>
+        <v>1.040523223139189e-09</v>
       </c>
       <c r="BP9" t="n">
-        <v>6.78822154043246e-09</v>
+        <v>2.410426580556901e-10</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.024507977400503e-09</v>
+        <v>4.409315967901506e-10</v>
       </c>
       <c r="BR9" t="n">
-        <v>7.136671698049213e-09</v>
+        <v>4.659986840849228e-10</v>
       </c>
       <c r="BS9" t="n">
-        <v>6.388561679671056e-09</v>
+        <v>3.142061610894586e-10</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.132346852538717e-10</v>
+        <v>7.176734206915114e-11</v>
       </c>
       <c r="BU9" t="n">
-        <v>5.357401633432346e-09</v>
+        <v>8.523445838015675e-12</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.059524112889676e-08</v>
+        <v>1.541623717571383e-09</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.031074781110419e-08</v>
+        <v>2.639168328322228e-10</v>
       </c>
       <c r="BX9" t="n">
-        <v>6.460490475923564e-10</v>
+        <v>1.286554529578154e-09</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.832662377410088e-08</v>
+        <v>5.426546989539816e-10</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.361614287986868e-08</v>
+        <v>8.633573023164587e-12</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.703577888813925e-09</v>
+        <v>1.621385137262621e-09</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.756772226637395e-09</v>
+        <v>5.860451568473479e-10</v>
       </c>
       <c r="CC9" t="n">
-        <v>8.372137649814704e-09</v>
+        <v>1.414967032431491e-09</v>
       </c>
       <c r="CD9" t="n">
-        <v>4.155696231578077e-09</v>
+        <v>4.714029167018907e-10</v>
       </c>
       <c r="CE9" t="n">
-        <v>7.115984246297558e-09</v>
+        <v>8.358412850739683e-10</v>
       </c>
       <c r="CF9" t="n">
-        <v>9.114896393214167e-09</v>
+        <v>9.086387753320935e-10</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.887829448321554e-09</v>
+        <v>7.845394889294255e-10</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.091122658891663e-08</v>
+        <v>7.136881641223169e-10</v>
       </c>
       <c r="CI9" t="n">
-        <v>8.176858301567336e-09</v>
+        <v>1.782697461871763e-10</v>
       </c>
       <c r="CJ9" t="n">
-        <v>4.10814893214706e-09</v>
+        <v>5.613063902565329e-10</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.607205340510177e-09</v>
+        <v>4.07185646311703e-10</v>
       </c>
       <c r="CL9" t="n">
-        <v>3.42128481101156e-09</v>
+        <v>9.458664962380681e-10</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.148577943865803e-08</v>
+        <v>3.603216336411919e-10</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.64722643805726e-08</v>
+        <v>5.747187170612733e-10</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.046271291826883e-09</v>
+        <v>8.137497620186451e-11</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.549543325931381e-09</v>
+        <v>2.784022123947238e-09</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.29954553784728e-08</v>
+        <v>1.604392951826128e-09</v>
       </c>
       <c r="CR9" t="n">
-        <v>4.517844320872655e-09</v>
+        <v>5.500572775041235e-10</v>
       </c>
       <c r="CS9" t="n">
-        <v>6.101657401558214e-09</v>
+        <v>1.049954456711077e-09</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.198656257057507e-10</v>
+        <v>2.859818826195237e-09</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.324758258647307e-08</v>
+        <v>1.80790410420073e-10</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.487833216160197e-09</v>
+        <v>5.105689759865584e-10</v>
       </c>
       <c r="CW9" t="n">
-        <v>7.116623734759742e-09</v>
+        <v>6.969028132353117e-10</v>
       </c>
       <c r="CX9" t="n">
-        <v>9.922675126006197e-09</v>
+        <v>6.809053321177316e-10</v>
       </c>
       <c r="CY9" t="n">
-        <v>5.028317207056432e-10</v>
+        <v>1.516640146803638e-09</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.333997889929606e-08</v>
+        <v>8.495687486842485e-10</v>
       </c>
       <c r="DA9" t="n">
-        <v>8.239374515994768e-09</v>
+        <v>3.086884914349497e-10</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.817825084378001e-09</v>
+        <v>5.584346873810375e-10</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.653572612170251e-09</v>
+        <v>4.444226375799332e-10</v>
       </c>
       <c r="DD9" t="n">
-        <v>6.821597953177161e-09</v>
+        <v>7.179050132144482e-10</v>
       </c>
       <c r="DE9" t="n">
-        <v>6.822065579115133e-09</v>
+        <v>5.198075858636741e-10</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.607963622835996e-08</v>
+        <v>8.107576277005535e-10</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.190811715900963e-08</v>
+        <v>2.372109397796862e-09</v>
       </c>
       <c r="DH9" t="n">
-        <v>9.198481976113726e-10</v>
+        <v>7.052936012996724e-09</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.140711258784677e-08</v>
+        <v>2.870380155783891e-09</v>
       </c>
       <c r="DJ9" t="n">
-        <v>5.316906914742958e-09</v>
+        <v>2.033465618112018e-10</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.068559907224653e-09</v>
+        <v>1.002766869540039e-09</v>
       </c>
       <c r="DL9" t="n">
-        <v>7.248228239831178e-09</v>
+        <v>3.643331636382641e-09</v>
       </c>
       <c r="DM9" t="n">
-        <v>7.122662903924493e-09</v>
+        <v>4.39359548742857e-10</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.352102068670092e-09</v>
+        <v>3.908578738442969e-10</v>
       </c>
       <c r="DO9" t="n">
-        <v>8.045083710328527e-09</v>
+        <v>3.210266774633652e-11</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.690758200112441e-09</v>
+        <v>1.618120082369501e-09</v>
       </c>
       <c r="DQ9" t="n">
-        <v>6.480292746857685e-09</v>
+        <v>2.286221489899987e-10</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.399273030777692e-09</v>
+        <v>1.335352273201806e-09</v>
       </c>
       <c r="DS9" t="n">
-        <v>4.198418501744072e-09</v>
+        <v>1.325873189017557e-09</v>
       </c>
       <c r="DT9" t="n">
-        <v>6.44722408793541e-09</v>
+        <v>4.02407052124687e-10</v>
       </c>
       <c r="DU9" t="n">
-        <v>7.557039438665925e-09</v>
+        <v>5.757589197075141e-11</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.421094658089373e-09</v>
+        <v>1.617619926896907e-09</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.225656547949484e-09</v>
+        <v>9.062252059877096e-10</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.631315165757542e-09</v>
+        <v>5.4882720590399e-10</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.018809563963941e-09</v>
+        <v>1.811743088886431e-09</v>
       </c>
       <c r="DZ9" t="n">
-        <v>4.718282209381641e-09</v>
+        <v>1.131338842053076e-10</v>
       </c>
       <c r="EA9" t="n">
-        <v>9.113734655841199e-09</v>
+        <v>1.562325491200056e-09</v>
       </c>
       <c r="EB9" t="n">
-        <v>2.932175391379133e-09</v>
+        <v>1.699615781447505e-09</v>
       </c>
       <c r="EC9" t="n">
-        <v>9.861249594678156e-10</v>
+        <v>4.630413552586532e-10</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.789992903373673e-09</v>
+        <v>3.656283886765976e-10</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.430163987237165e-09</v>
+        <v>1.507128866151675e-10</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.492599181560308e-09</v>
+        <v>2.897039275140401e-10</v>
       </c>
       <c r="EG9" t="n">
-        <v>6.213345393746295e-10</v>
+        <v>2.595343107092418e-10</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.193341692129479e-08</v>
+        <v>8.300464482413616e-11</v>
       </c>
       <c r="EI9" t="n">
-        <v>5.544728232109719e-09</v>
+        <v>1.081821632276103e-09</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.21076073611448e-08</v>
+        <v>8.266097251130589e-10</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.568878360558301e-08</v>
+        <v>4.226366756565625e-10</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.375384333674901e-10</v>
+        <v>1.078078515348579e-09</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.802737403799881e-09</v>
+        <v>2.943325028148536e-10</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.906059310385899e-09</v>
+        <v>5.118645507451447e-10</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.290380802210223e-09</v>
+        <v>3.123773462121449e-10</v>
       </c>
       <c r="EP9" t="n">
-        <v>4.005179299326755e-09</v>
+        <v>1.335246635481013e-10</v>
       </c>
       <c r="EQ9" t="n">
-        <v>6.443317879245569e-09</v>
+        <v>5.362368327155309e-10</v>
       </c>
       <c r="ER9" t="n">
-        <v>7.126049084149599e-09</v>
+        <v>2.409476507203578e-10</v>
       </c>
       <c r="ES9" t="n">
-        <v>7.176701011246678e-09</v>
+        <v>2.73963474128891e-09</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.018392646936263e-09</v>
+        <v>6.618504633237876e-10</v>
       </c>
       <c r="EU9" t="n">
-        <v>3.276906745952601e-09</v>
+        <v>2.342991078929657e-10</v>
       </c>
       <c r="EV9" t="n">
-        <v>3.071535803478298e-10</v>
+        <v>1.846650277137485e-09</v>
       </c>
       <c r="EW9" t="n">
-        <v>4.235878314773345e-09</v>
+        <v>2.208522531521595e-10</v>
       </c>
       <c r="EX9" t="n">
-        <v>5.871803487877969e-09</v>
+        <v>3.345091426076863e-10</v>
       </c>
       <c r="EY9" t="n">
-        <v>6.871427427057597e-09</v>
+        <v>7.00086544291878e-10</v>
       </c>
       <c r="EZ9" t="n">
-        <v>9.664482547577791e-09</v>
+        <v>7.129730694721559e-10</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.344824778788279e-09</v>
+        <v>1.227773105405561e-09</v>
       </c>
       <c r="FB9" t="n">
-        <v>9.78254366401643e-09</v>
+        <v>4.763489047654446e-10</v>
       </c>
       <c r="FC9" t="n">
-        <v>6.669542251813709e-09</v>
+        <v>2.8897489956492e-10</v>
       </c>
       <c r="FD9" t="n">
-        <v>4.232276751281461e-09</v>
+        <v>6.138674568667568e-10</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.901418299534498e-09</v>
+        <v>4.107129636388152e-10</v>
       </c>
       <c r="FF9" t="n">
-        <v>6.664484075713517e-09</v>
+        <v>9.555382041170901e-10</v>
       </c>
       <c r="FG9" t="n">
-        <v>5.89377657789214e-09</v>
+        <v>6.117356621260228e-10</v>
       </c>
       <c r="FH9" t="n">
-        <v>6.099138083470734e-09</v>
+        <v>6.344593184159919e-10</v>
       </c>
       <c r="FI9" t="n">
-        <v>6.786661455038256e-09</v>
+        <v>1.8395410750216e-09</v>
       </c>
       <c r="FJ9" t="n">
-        <v>7.90468401845601e-09</v>
+        <v>2.515276653625165e-09</v>
       </c>
       <c r="FK9" t="n">
-        <v>7.214625341589453e-09</v>
+        <v>6.054454715354041e-10</v>
       </c>
       <c r="FL9" t="n">
-        <v>4.259957719909835e-09</v>
+        <v>4.673228470863933e-11</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.86989773559776e-09</v>
+        <v>1.081097544819443e-09</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.214411543022266e-09</v>
+        <v>8.228662196074765e-10</v>
       </c>
       <c r="FO9" t="n">
-        <v>6.52905995934816e-09</v>
+        <v>3.331872278078407e-10</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.861181542217594e-09</v>
+        <v>2.999238357670464e-11</v>
       </c>
       <c r="FQ9" t="n">
-        <v>9.575316539667256e-09</v>
+        <v>1.482408418240766e-09</v>
       </c>
       <c r="FR9" t="n">
-        <v>5.864032370794803e-09</v>
+        <v>1.382382958103889e-10</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.872352939358279e-09</v>
+        <v>1.170009200635036e-09</v>
       </c>
       <c r="FT9" t="n">
-        <v>9.201930772917422e-09</v>
+        <v>2.047089830981008e-09</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.05884847556581e-08</v>
+        <v>1.542479477478764e-10</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.247911773916144e-09</v>
+        <v>1.44692452463957e-10</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.357819273157702e-09</v>
+        <v>1.097341106870431e-09</v>
       </c>
       <c r="FX9" t="n">
-        <v>9.758203134424548e-09</v>
+        <v>4.481312543269667e-10</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.864832288589469e-09</v>
+        <v>1.687334494349102e-09</v>
       </c>
       <c r="FZ9" t="n">
-        <v>7.400566381932094e-09</v>
+        <v>4.24712182089948e-10</v>
       </c>
       <c r="GA9" t="n">
-        <v>2.595685222317456e-09</v>
+        <v>2.150797734357113e-10</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.006469130260257e-09</v>
+        <v>7.11551095822216e-11</v>
       </c>
       <c r="GC9" t="n">
-        <v>6.42557562713364e-09</v>
+        <v>2.238664364995202e-09</v>
       </c>
       <c r="GD9" t="n">
-        <v>9.282342894323392e-09</v>
+        <v>5.663408630951494e-10</v>
       </c>
       <c r="GE9" t="n">
-        <v>4.669430619941295e-09</v>
+        <v>3.49088824513899e-09</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.072810533273241e-09</v>
+        <v>3.814503712895601e-10</v>
       </c>
       <c r="GG9" t="n">
-        <v>5.467323815899761e-10</v>
+        <v>1.676660699168053e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001299053430557251</v>
+        <v>0.0003113914281129837</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0004556204075925052</v>
+        <v>0.002704128157347441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001219372497871518</v>
+        <v>0.0001628963073017076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001720088999718428</v>
+        <v>0.001450830604881048</v>
       </c>
       <c r="E10" t="n">
-        <v>9.66641164268367e-05</v>
+        <v>0.0001635863591218367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000130666812765412</v>
+        <v>0.002090363297611475</v>
       </c>
       <c r="G10" t="n">
-        <v>2.925594890257344e-05</v>
+        <v>0.0001673524384386837</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007561994134448469</v>
+        <v>0.0005947574391029775</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002987898886203766</v>
+        <v>0.0001105337505578063</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007350411033257842</v>
+        <v>0.000542200286872685</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004586159775499254</v>
+        <v>0.002136528491973877</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001869792933575809</v>
+        <v>4.967648783349432e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001269834116101265</v>
+        <v>0.001384645467624068</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0003551189147401601</v>
+        <v>0.0002693996648304164</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0008043606649152935</v>
+        <v>0.002098436001688242</v>
       </c>
       <c r="P10" t="n">
-        <v>2.940557897090912e-05</v>
+        <v>0.0001243162405444309</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001070815487764776</v>
+        <v>0.0002153554814867675</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002993411384522915</v>
+        <v>9.434428648091853e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000223845403525047</v>
+        <v>5.566791514866054e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>9.213690645992756e-06</v>
+        <v>0.0004074554599355906</v>
       </c>
       <c r="U10" t="n">
-        <v>7.285951869562268e-05</v>
+        <v>4.742711462313309e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001056988723576069</v>
+        <v>0.0004752794047817588</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001170561416074634</v>
+        <v>9.278808647650294e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0006474641268141568</v>
+        <v>3.7736685044365e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0006497095455415547</v>
+        <v>0.0002411589084658772</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0002747577673289925</v>
+        <v>7.20269454177469e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.000466397381387651</v>
+        <v>0.0003497660800348967</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0003700226661749184</v>
+        <v>9.699034853838384e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0002535890962462872</v>
+        <v>0.0003024444449692965</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0001118368745665066</v>
+        <v>2.75834281637799e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.309978637844324e-05</v>
+        <v>0.0001163034030469134</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0003364566946402192</v>
+        <v>0.0001207335299113765</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0006228341371752322</v>
+        <v>3.217988705728203e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0004891747375950217</v>
+        <v>0.00038188073085621</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.001421324210241437</v>
+        <v>1.43999386637006e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0007085773395374417</v>
+        <v>1.528450229670852e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0003394283994566649</v>
+        <v>0.0002986787003464997</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0009084920748136938</v>
+        <v>0.0003175303572788835</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0002349083370063454</v>
+        <v>5.584710743278265e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0007055078167468309</v>
+        <v>0.0002739459159784019</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.856272324919701e-05</v>
+        <v>9.795801452128217e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.001125858863815665</v>
+        <v>0.0004263326991349459</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0002067478781100363</v>
+        <v>8.512965723639354e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.322195086890133e-06</v>
+        <v>0.0001123749607359059</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0001663665170781314</v>
+        <v>0.0002028846793109551</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0002921227423939854</v>
+        <v>0.0001902354415506124</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0004297929699532688</v>
+        <v>0.001903840922750533</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001023125601932406</v>
+        <v>0.0001615291548660025</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.001086745178326964</v>
+        <v>5.104717274662107e-06</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0003163324436172843</v>
+        <v>0.000210415106266737</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.001078450120985508</v>
+        <v>0.001155389589257538</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0002576741389930248</v>
+        <v>0.0001114020051318221</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0005238889716565609</v>
+        <v>0.0003817038086708635</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0009090912062674761</v>
+        <v>0.0003705584385897964</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0002018329978454858</v>
+        <v>0.0001118194195441902</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0007085052784532309</v>
+        <v>0.0005754187586717308</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0004723557212855667</v>
+        <v>0.0006310290191322565</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0004282594018150121</v>
+        <v>0.0007663901196792722</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.90119239455089e-05</v>
+        <v>0.000635060016065836</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0001441457425244153</v>
+        <v>0.0007030048873275518</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.736279566306621e-05</v>
+        <v>7.816003926564008e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0002807395649142563</v>
+        <v>0.0004885274101980031</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0009057758143171668</v>
+        <v>6.699398363707587e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>9.287241118727252e-05</v>
+        <v>0.0002911703195422888</v>
       </c>
       <c r="BM10" t="n">
-        <v>9.415406384505332e-05</v>
+        <v>0.0007844326901249588</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0007786837522871792</v>
+        <v>0.000198194247786887</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0001866890524979681</v>
+        <v>0.0003705246781464666</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0001763509644661099</v>
+        <v>0.0004361897008493543</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0001692282385192811</v>
+        <v>1.456103655073093e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>4.791855462826788e-05</v>
+        <v>0.0002602189488243312</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0007272008224390447</v>
+        <v>0.0001875944726634771</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0004604247224051505</v>
+        <v>5.999118729960173e-05</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0003086869837716222</v>
+        <v>7.829074456822127e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0004309312207624316</v>
+        <v>0.0009745642892085016</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.000113919930299744</v>
+        <v>0.0001449447881896049</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.001006988692097366</v>
+        <v>0.0001130215387092903</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0002056601078948006</v>
+        <v>8.8169050286524e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>8.365969551960006e-05</v>
+        <v>0.0002442765398882329</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0001288076164200902</v>
+        <v>0.0003799374389927834</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0006404279847629368</v>
+        <v>0.000152244494529441</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.001582910772413015</v>
+        <v>0.0002039413520833477</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.000382609257940203</v>
+        <v>9.305395360570401e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0004919413477182388</v>
+        <v>0.0004837554006371647</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0002529174089431763</v>
+        <v>0.0001906240941025317</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0003767980961129069</v>
+        <v>0.0001552814646856859</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0001977677311515436</v>
+        <v>0.0001566803985042498</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.434071509720525e-05</v>
+        <v>0.0003661876835394651</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0001206047818413936</v>
+        <v>5.729057374992408e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0001317418355029076</v>
+        <v>0.0001406555238645524</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0003386008320376277</v>
+        <v>0.0001372546685161069</v>
       </c>
       <c r="CM10" t="n">
-        <v>5.564896855503321e-05</v>
+        <v>0.0003318477829452604</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.001212905161082745</v>
+        <v>0.0003497582802083343</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0001706941693555564</v>
+        <v>1.418136525899172e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0008666221983730793</v>
+        <v>0.0003929862286895514</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0008033791673369706</v>
+        <v>0.0001166924048447981</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0005269530229270458</v>
+        <v>0.0001466305984649807</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.378780871164054e-05</v>
+        <v>0.00011695601278916</v>
       </c>
       <c r="CT10" t="n">
-        <v>9.425121243111789e-05</v>
+        <v>0.0003763660206459463</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0004031297576148063</v>
+        <v>0.0001464472006773576</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0004352189425844699</v>
+        <v>7.471870048902929e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0005842374521307647</v>
+        <v>0.0003726680297404528</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.000223325623665005</v>
+        <v>0.0001835230941651389</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0003911386011168361</v>
+        <v>0.000301972555462271</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0002673890558071434</v>
+        <v>0.0001375992869725451</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0001662925351411104</v>
+        <v>0.0003507680376060307</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001504204410593957</v>
+        <v>0.0001146640788647346</v>
       </c>
       <c r="DC10" t="n">
-        <v>8.716608863323927e-05</v>
+        <v>0.0002849600277841091</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0004287631891202182</v>
+        <v>6.580348417628556e-05</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.000988104147836566</v>
+        <v>7.210300827864558e-05</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.001273143920116127</v>
+        <v>0.0007621578988619149</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.001369131961837411</v>
+        <v>0.0001962139940587804</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0005004184786230326</v>
+        <v>0.0007381842588074505</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.000832950696349144</v>
+        <v>0.0001820502220652997</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0001624211290618405</v>
+        <v>0.0002963506558444351</v>
       </c>
       <c r="DK10" t="n">
-        <v>8.385992259718478e-05</v>
+        <v>0.0002628829970490187</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0004136456118430942</v>
+        <v>0.000536530336830765</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0001586410216987133</v>
+        <v>0.0003503380867186934</v>
       </c>
       <c r="DN10" t="n">
-        <v>4.723795427707955e-05</v>
+        <v>0.0001630032638786361</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0002510557824280113</v>
+        <v>0.0003031404048670083</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0004832380800507963</v>
+        <v>0.0002652723924256861</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0001353027473669499</v>
+        <v>0.0002679431345313787</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0002066853776341304</v>
+        <v>0.000160620576934889</v>
       </c>
       <c r="DS10" t="n">
-        <v>5.521935236174613e-05</v>
+        <v>0.0001795736025087535</v>
       </c>
       <c r="DT10" t="n">
-        <v>4.66988276457414e-05</v>
+        <v>1.627077290322632e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0003370092599652708</v>
+        <v>4.383948544273153e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0004620816616807133</v>
+        <v>7.745912444079295e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>3.264597762608901e-05</v>
+        <v>0.0001394632417941466</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.236012030858546e-05</v>
+        <v>1.668483491812367e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0002157249837182462</v>
+        <v>0.0002676567528396845</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0003081687318626791</v>
+        <v>3.255152842029929e-05</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0001898975751828402</v>
+        <v>0.0001706782495602965</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0003291779139544815</v>
+        <v>8.519100811099634e-05</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0002678297751117498</v>
+        <v>6.822826253483072e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>8.903048728825524e-05</v>
+        <v>0.0001749141374602914</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0005565501051023602</v>
+        <v>0.0002644262567628175</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0003494159027468413</v>
+        <v>1.829158281907439e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0007603183039464056</v>
+        <v>0.0002137351257260889</v>
       </c>
       <c r="EH10" t="n">
-        <v>8.908056770451367e-05</v>
+        <v>4.249854100635275e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0005698837339878082</v>
+        <v>1.132962643168867e-05</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.000228300501476042</v>
+        <v>2.017917722696438e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.091801434289664e-07</v>
+        <v>0.000199892747332342</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0001435126905562356</v>
+        <v>0.0001331709063379094</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0005645769997499883</v>
+        <v>8.765023085288703e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0004789380764123052</v>
+        <v>9.841164865065366e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0006188572151586413</v>
+        <v>0.0001300000876653939</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0002058606332866475</v>
+        <v>0.0002217414294136688</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0006158161559142172</v>
+        <v>0.0001346084027318284</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.381449540844187e-05</v>
+        <v>9.780909022083506e-05</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0008438405930064619</v>
+        <v>0.000129444117192179</v>
       </c>
       <c r="ET10" t="n">
-        <v>5.205147681408562e-05</v>
+        <v>0.0002414514019619673</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0001244593586307019</v>
+        <v>0.0001782891049515456</v>
       </c>
       <c r="EV10" t="n">
-        <v>5.865420098416507e-05</v>
+        <v>0.0004282624868210405</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0005491439369507134</v>
+        <v>1.255803090316476e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0003378638357389718</v>
+        <v>7.424653449561447e-05</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0005662399344146252</v>
+        <v>0.0003580648335628211</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0002903953427448869</v>
+        <v>0.0001017448739730753</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0002729614789132029</v>
+        <v>0.0001594276691321284</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0002048457972705364</v>
+        <v>0.0001273657398996875</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0001029568375088274</v>
+        <v>0.0003380518173798919</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0001761593885021284</v>
+        <v>0.0001454223820473999</v>
       </c>
       <c r="FE10" t="n">
-        <v>9.40050813369453e-05</v>
+        <v>0.0001377309672534466</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.0004793961998075247</v>
+        <v>0.0001719552965369076</v>
       </c>
       <c r="FG10" t="n">
-        <v>5.753713776357472e-05</v>
+        <v>6.743730773450807e-05</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0002662535407580435</v>
+        <v>0.0001094989493140019</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.000291577453026548</v>
+        <v>0.0001636340166442096</v>
       </c>
       <c r="FJ10" t="n">
-        <v>5.575969771598466e-05</v>
+        <v>0.00012149410758866</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0001724085886962712</v>
+        <v>4.583477493724786e-05</v>
       </c>
       <c r="FL10" t="n">
-        <v>3.989325341535732e-05</v>
+        <v>0.0002369697467656806</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0002744921948760748</v>
+        <v>2.60426095337607e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0004106535052414984</v>
+        <v>0.0001733308163238689</v>
       </c>
       <c r="FO10" t="n">
-        <v>5.918846363783814e-05</v>
+        <v>1.757326390361413e-05</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0001601225521881133</v>
+        <v>0.000153167697135359</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0001918207854032516</v>
+        <v>0.0002180525480071083</v>
       </c>
       <c r="FR10" t="n">
-        <v>8.51857548695989e-05</v>
+        <v>5.626838174066506e-06</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0004086484841536731</v>
+        <v>8.389125287067145e-05</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0004673764342442155</v>
+        <v>0.0008119302219711244</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0001372432161588222</v>
+        <v>0.0002007440489251167</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.000338978337822482</v>
+        <v>5.215204873820767e-05</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0004863798094447702</v>
+        <v>0.0003548377135302871</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0002237710141343996</v>
+        <v>0.000168024969752878</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0004852351557929069</v>
+        <v>0.0004246051539666951</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0003472700482234359</v>
+        <v>0.0001256885443581268</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0003128143143840134</v>
+        <v>0.000146533886436373</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.00013603841944132</v>
+        <v>0.0002468583988957107</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0003381757996976376</v>
+        <v>6.90321103320457e-05</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0004655299999285489</v>
+        <v>0.0001773940748535097</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0002995552495121956</v>
+        <v>0.0007573181064799428</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.000159244955284521</v>
+        <v>6.033353565726429e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0004647324385587126</v>
+        <v>0.0002289350522914901</v>
       </c>
     </row>
   </sheetData>
